--- a/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
+++ b/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8931BF-6C5E-4D68-9FA0-64AA8CB3A1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734CE36-14F5-4E09-B621-36A964C547FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
     <sheet name="Design Basis" sheetId="2" r:id="rId2"/>
-    <sheet name="MCC" sheetId="3" r:id="rId3"/>
-    <sheet name="PCC" sheetId="6" r:id="rId4"/>
-    <sheet name="MCC CUM PLC" sheetId="5" r:id="rId5"/>
+    <sheet name="MCC VTUS88BP" sheetId="3" r:id="rId3"/>
+    <sheet name="PCC VTUS88BP" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC CUM PLC VTUS88BP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1960,6 +1960,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2011,41 +2047,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2059,6 +2131,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,81 +2152,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,12 +2185,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2199,21 +2214,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2709,7 +2709,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3358,50 +3358,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="88"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
@@ -3415,78 +3415,78 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3750,6 +3750,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3760,12 +3766,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3791,26 +3791,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3819,8 +3819,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3829,8 +3829,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3839,8 +3839,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3849,8 +3849,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3859,8 +3859,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3869,8 +3869,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3879,8 +3879,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3889,8 +3889,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3899,8 +3899,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3909,8 +3909,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3919,8 +3919,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="107"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="131"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3929,8 +3929,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="131"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3939,8 +3939,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="107"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="131"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3949,8 +3949,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="107"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -3959,16 +3959,16 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -3977,8 +3977,8 @@
       <c r="B20" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -3987,8 +3987,8 @@
       <c r="B21" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -3997,8 +3997,8 @@
       <c r="B22" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -4007,8 +4007,8 @@
       <c r="B23" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -4017,16 +4017,16 @@
       <c r="B24" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
@@ -4252,19 +4252,19 @@
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -4273,8 +4273,8 @@
       <c r="B50" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="120"/>
-      <c r="D50" s="121"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="107"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -4283,8 +4283,8 @@
       <c r="B51" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="121"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -4293,8 +4293,8 @@
       <c r="B52" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="121"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -4303,8 +4303,8 @@
       <c r="B53" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="107"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -4313,8 +4313,8 @@
       <c r="B54" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="121"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="107"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -4323,8 +4323,8 @@
       <c r="B55" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="107"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -4333,24 +4333,24 @@
       <c r="B56" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="120"/>
-      <c r="D56" s="121"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="116" t="s">
+      <c r="B57" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="117"/>
-      <c r="D57" s="118"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="110"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="110"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -4359,16 +4359,16 @@
       <c r="B59" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="107"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="118"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="110"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4377,8 +4377,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="112"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4387,8 +4387,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4397,8 +4397,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="122"/>
-      <c r="D63" s="123"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="112"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4407,8 +4407,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="112"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4417,8 +4417,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="123"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="112"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4427,16 +4427,16 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="122"/>
-      <c r="D66" s="123"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="112"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="117"/>
-      <c r="D67" s="118"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="110"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
@@ -4445,16 +4445,16 @@
       <c r="B68" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="120"/>
-      <c r="D68" s="121"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="107"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="117"/>
-      <c r="D69" s="118"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="110"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -4463,8 +4463,8 @@
       <c r="B70" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="120"/>
-      <c r="D70" s="121"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="107"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -4473,8 +4473,8 @@
       <c r="B71" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="120"/>
-      <c r="D71" s="121"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="107"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -4483,8 +4483,8 @@
       <c r="B72" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="120"/>
-      <c r="D72" s="121"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="107"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -4493,8 +4493,8 @@
       <c r="B73" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="121"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="107"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -4503,16 +4503,16 @@
       <c r="B74" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="121"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="107"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="124"/>
-      <c r="D75" s="125"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="129"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -4521,8 +4521,8 @@
       <c r="B76" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="121"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="107"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -4531,8 +4531,8 @@
       <c r="B77" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="120"/>
-      <c r="D77" s="121"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="107"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -4541,8 +4541,8 @@
       <c r="B78" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="107"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -4551,8 +4551,8 @@
       <c r="B79" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="120"/>
-      <c r="D79" s="121"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="107"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -4561,16 +4561,16 @@
       <c r="B80" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="107"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="124"/>
-      <c r="D81" s="125"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="129"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -4579,8 +4579,8 @@
       <c r="B82" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="120"/>
-      <c r="D82" s="121"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="107"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -4589,8 +4589,8 @@
       <c r="B83" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="120"/>
-      <c r="D83" s="121"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="107"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4599,8 +4599,8 @@
       <c r="B84" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="120"/>
-      <c r="D84" s="121"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="107"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -4609,8 +4609,8 @@
       <c r="B85" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="120"/>
-      <c r="D85" s="121"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="107"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -4619,8 +4619,8 @@
       <c r="B86" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="120"/>
-      <c r="D86" s="121"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="107"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4629,8 +4629,8 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="120"/>
-      <c r="D87" s="121"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="107"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4639,8 +4639,8 @@
       <c r="B88" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="120"/>
-      <c r="D88" s="121"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="107"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -4649,16 +4649,16 @@
       <c r="B89" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="120"/>
-      <c r="D89" s="121"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="107"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="117"/>
-      <c r="D90" s="118"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="110"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -4667,8 +4667,8 @@
       <c r="B91" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="120"/>
-      <c r="D91" s="121"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="107"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -4677,8 +4677,8 @@
       <c r="B92" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="120"/>
-      <c r="D92" s="121"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="107"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -4687,8 +4687,8 @@
       <c r="B93" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="120"/>
-      <c r="D93" s="121"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="107"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4697,16 +4697,16 @@
       <c r="B94" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="120"/>
-      <c r="D94" s="121"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="107"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="116" t="s">
+      <c r="B95" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="117"/>
-      <c r="D95" s="118"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="110"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4715,8 +4715,8 @@
       <c r="B96" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="120"/>
-      <c r="D96" s="121"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="107"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -4725,8 +4725,8 @@
       <c r="B97" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="122"/>
-      <c r="D97" s="123"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="112"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4735,8 +4735,8 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="120"/>
-      <c r="D98" s="121"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="107"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -4745,8 +4745,8 @@
       <c r="B99" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="120"/>
-      <c r="D99" s="121"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="107"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4755,16 +4755,16 @@
       <c r="B100" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="120"/>
-      <c r="D100" s="121"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="107"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="117"/>
-      <c r="D101" s="118"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="110"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -4773,8 +4773,8 @@
       <c r="B102" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="122"/>
-      <c r="D102" s="123"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="112"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -4783,8 +4783,8 @@
       <c r="B103" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="122"/>
-      <c r="D103" s="123"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="112"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4793,8 +4793,8 @@
       <c r="B104" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="122"/>
-      <c r="D104" s="123"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="112"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -4803,16 +4803,16 @@
       <c r="B105" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="122"/>
-      <c r="D105" s="123"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="112"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="116" t="s">
+      <c r="B106" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="117"/>
-      <c r="D106" s="118"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="110"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -4821,16 +4821,16 @@
       <c r="B107" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="120"/>
-      <c r="D107" s="121"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="107"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="116" t="s">
+      <c r="B108" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="117"/>
-      <c r="D108" s="118"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="110"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -4839,8 +4839,8 @@
       <c r="B109" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="120"/>
-      <c r="D109" s="121"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="107"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4849,8 +4849,8 @@
       <c r="B110" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="120"/>
-      <c r="D110" s="121"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="107"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -4859,8 +4859,8 @@
       <c r="B111" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="121"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="107"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -4869,8 +4869,8 @@
       <c r="B112" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="120"/>
-      <c r="D112" s="121"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="107"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -4879,8 +4879,8 @@
       <c r="B113" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="120"/>
-      <c r="D113" s="121"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="107"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4889,8 +4889,8 @@
       <c r="B114" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="120"/>
-      <c r="D114" s="121"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="107"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -4899,8 +4899,8 @@
       <c r="B115" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="120"/>
-      <c r="D115" s="121"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="107"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4909,8 +4909,8 @@
       <c r="B116" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="120"/>
-      <c r="D116" s="121"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="107"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -4919,8 +4919,8 @@
       <c r="B117" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="120"/>
-      <c r="D117" s="121"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="107"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -4929,8 +4929,8 @@
       <c r="B118" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="120"/>
-      <c r="D118" s="121"/>
+      <c r="C118" s="106"/>
+      <c r="D118" s="107"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
@@ -4939,8 +4939,8 @@
       <c r="B119" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="122"/>
-      <c r="D119" s="123"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="112"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -4949,8 +4949,8 @@
       <c r="B120" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="122"/>
-      <c r="D120" s="123"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="112"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -4959,8 +4959,8 @@
       <c r="B121" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="122"/>
-      <c r="D121" s="123"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="112"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -4969,8 +4969,8 @@
       <c r="B122" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="122"/>
-      <c r="D122" s="123"/>
+      <c r="C122" s="116"/>
+      <c r="D122" s="112"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -4979,8 +4979,8 @@
       <c r="B123" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="120"/>
-      <c r="D123" s="121"/>
+      <c r="C123" s="106"/>
+      <c r="D123" s="107"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -4989,8 +4989,8 @@
       <c r="B124" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="121"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="107"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -4999,12 +4999,12 @@
       <c r="B125" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="120"/>
-      <c r="D125" s="121"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="107"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="116" t="s">
+      <c r="B126" s="108" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="126"/>
@@ -5017,8 +5017,8 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="120"/>
-      <c r="D127" s="121"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="107"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
@@ -5027,8 +5027,8 @@
       <c r="B128" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="120"/>
-      <c r="D128" s="121"/>
+      <c r="C128" s="106"/>
+      <c r="D128" s="107"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5037,8 +5037,8 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="120"/>
-      <c r="D129" s="121"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="107"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
@@ -5047,16 +5047,16 @@
       <c r="B130" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="122"/>
-      <c r="D130" s="123"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="112"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="117"/>
-      <c r="D131" s="118"/>
+      <c r="C131" s="109"/>
+      <c r="D131" s="110"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -5065,8 +5065,8 @@
       <c r="B132" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="120"/>
-      <c r="D132" s="121"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="107"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -5075,8 +5075,8 @@
       <c r="B133" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="120"/>
-      <c r="D133" s="121"/>
+      <c r="C133" s="106"/>
+      <c r="D133" s="107"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5085,8 +5085,8 @@
       <c r="B134" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="122"/>
-      <c r="D134" s="123"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="112"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -5095,8 +5095,8 @@
       <c r="B135" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="120"/>
-      <c r="D135" s="121"/>
+      <c r="C135" s="106"/>
+      <c r="D135" s="107"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -5105,8 +5105,8 @@
       <c r="B136" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="120"/>
-      <c r="D136" s="121"/>
+      <c r="C136" s="106"/>
+      <c r="D136" s="107"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
@@ -5115,8 +5115,8 @@
       <c r="B137" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="122"/>
-      <c r="D137" s="123"/>
+      <c r="C137" s="116"/>
+      <c r="D137" s="112"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5125,8 +5125,8 @@
       <c r="B138" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="120"/>
-      <c r="D138" s="121"/>
+      <c r="C138" s="106"/>
+      <c r="D138" s="107"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5135,8 +5135,8 @@
       <c r="B139" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="120"/>
-      <c r="D139" s="121"/>
+      <c r="C139" s="106"/>
+      <c r="D139" s="107"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5145,8 +5145,8 @@
       <c r="B140" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="122"/>
-      <c r="D140" s="123"/>
+      <c r="C140" s="116"/>
+      <c r="D140" s="112"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5155,8 +5155,8 @@
       <c r="B141" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="122"/>
-      <c r="D141" s="123"/>
+      <c r="C141" s="116"/>
+      <c r="D141" s="112"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5165,8 +5165,8 @@
       <c r="B142" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="120"/>
-      <c r="D142" s="121"/>
+      <c r="C142" s="106"/>
+      <c r="D142" s="107"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -5175,16 +5175,16 @@
       <c r="B143" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="137"/>
-      <c r="D143" s="123"/>
+      <c r="C143" s="111"/>
+      <c r="D143" s="112"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="116" t="s">
+      <c r="B144" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="117"/>
-      <c r="D144" s="118"/>
+      <c r="C144" s="109"/>
+      <c r="D144" s="110"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5193,16 +5193,16 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="130"/>
-      <c r="D145" s="131"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="125"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="116" t="s">
+      <c r="B146" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="117"/>
-      <c r="D146" s="118"/>
+      <c r="C146" s="109"/>
+      <c r="D146" s="110"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -5211,8 +5211,8 @@
       <c r="B147" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="120"/>
-      <c r="D147" s="121"/>
+      <c r="C147" s="106"/>
+      <c r="D147" s="107"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5221,8 +5221,8 @@
       <c r="B148" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="120"/>
-      <c r="D148" s="121"/>
+      <c r="C148" s="106"/>
+      <c r="D148" s="107"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -5231,16 +5231,16 @@
       <c r="B149" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="120"/>
-      <c r="D149" s="121"/>
+      <c r="C149" s="106"/>
+      <c r="D149" s="107"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="116" t="s">
+      <c r="B150" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="117"/>
-      <c r="D150" s="118"/>
+      <c r="C150" s="109"/>
+      <c r="D150" s="110"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
@@ -5326,11 +5326,11 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="116" t="s">
+      <c r="B159" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="117"/>
-      <c r="D159" s="118"/>
+      <c r="C159" s="109"/>
+      <c r="D159" s="110"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -5339,8 +5339,8 @@
       <c r="B160" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="128"/>
-      <c r="D160" s="129"/>
+      <c r="C160" s="117"/>
+      <c r="D160" s="118"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -5349,8 +5349,8 @@
       <c r="B161" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="128"/>
-      <c r="D161" s="129"/>
+      <c r="C161" s="117"/>
+      <c r="D161" s="118"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -5359,8 +5359,8 @@
       <c r="B162" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="128"/>
-      <c r="D162" s="129"/>
+      <c r="C162" s="117"/>
+      <c r="D162" s="118"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
@@ -5369,8 +5369,8 @@
       <c r="B163" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="128"/>
-      <c r="D163" s="129"/>
+      <c r="C163" s="117"/>
+      <c r="D163" s="118"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -5379,8 +5379,8 @@
       <c r="B164" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="128"/>
-      <c r="D164" s="129"/>
+      <c r="C164" s="117"/>
+      <c r="D164" s="118"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -5389,8 +5389,8 @@
       <c r="B165" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="128"/>
-      <c r="D165" s="129"/>
+      <c r="C165" s="117"/>
+      <c r="D165" s="118"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -5399,8 +5399,8 @@
       <c r="B166" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="128"/>
-      <c r="D166" s="129"/>
+      <c r="C166" s="117"/>
+      <c r="D166" s="118"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
@@ -5409,8 +5409,8 @@
       <c r="B167" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="128"/>
-      <c r="D167" s="129"/>
+      <c r="C167" s="117"/>
+      <c r="D167" s="118"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
@@ -5496,11 +5496,11 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="116" t="s">
+      <c r="B176" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="117"/>
-      <c r="D176" s="118"/>
+      <c r="C176" s="109"/>
+      <c r="D176" s="110"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
@@ -5509,8 +5509,8 @@
       <c r="B177" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="120"/>
-      <c r="D177" s="121"/>
+      <c r="C177" s="106"/>
+      <c r="D177" s="107"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -5519,8 +5519,8 @@
       <c r="B178" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="120"/>
-      <c r="D178" s="121"/>
+      <c r="C178" s="106"/>
+      <c r="D178" s="107"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -5529,16 +5529,16 @@
       <c r="B179" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="122"/>
-      <c r="D179" s="123"/>
+      <c r="C179" s="116"/>
+      <c r="D179" s="112"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="116" t="s">
+      <c r="B180" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="117"/>
-      <c r="D180" s="118"/>
+      <c r="C180" s="109"/>
+      <c r="D180" s="110"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
@@ -5547,8 +5547,8 @@
       <c r="B181" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="128"/>
-      <c r="D181" s="129"/>
+      <c r="C181" s="117"/>
+      <c r="D181" s="118"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -5557,16 +5557,16 @@
       <c r="B182" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="120"/>
-      <c r="D182" s="121"/>
+      <c r="C182" s="106"/>
+      <c r="D182" s="107"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="116" t="s">
+      <c r="B183" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="117"/>
-      <c r="D183" s="118"/>
+      <c r="C183" s="109"/>
+      <c r="D183" s="110"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -5575,8 +5575,8 @@
       <c r="B184" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="120"/>
-      <c r="D184" s="121"/>
+      <c r="C184" s="106"/>
+      <c r="D184" s="107"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -5585,8 +5585,8 @@
       <c r="B185" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="120"/>
-      <c r="D185" s="121"/>
+      <c r="C185" s="106"/>
+      <c r="D185" s="107"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -5595,8 +5595,8 @@
       <c r="B186" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="120"/>
-      <c r="D186" s="121"/>
+      <c r="C186" s="106"/>
+      <c r="D186" s="107"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -5605,8 +5605,8 @@
       <c r="B187" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="120"/>
-      <c r="D187" s="121"/>
+      <c r="C187" s="106"/>
+      <c r="D187" s="107"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -5615,8 +5615,8 @@
       <c r="B188" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="138"/>
-      <c r="D188" s="139"/>
+      <c r="C188" s="113"/>
+      <c r="D188" s="114"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
@@ -5625,8 +5625,8 @@
       <c r="B189" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="140"/>
-      <c r="D189" s="121"/>
+      <c r="C189" s="115"/>
+      <c r="D189" s="107"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -5635,8 +5635,8 @@
       <c r="B190" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="122"/>
-      <c r="D190" s="123"/>
+      <c r="C190" s="116"/>
+      <c r="D190" s="112"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -5645,8 +5645,8 @@
       <c r="B191" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="120"/>
-      <c r="D191" s="121"/>
+      <c r="C191" s="106"/>
+      <c r="D191" s="107"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -5655,8 +5655,8 @@
       <c r="B192" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="120"/>
-      <c r="D192" s="121"/>
+      <c r="C192" s="106"/>
+      <c r="D192" s="107"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -5665,8 +5665,8 @@
       <c r="B193" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="120"/>
-      <c r="D193" s="121"/>
+      <c r="C193" s="106"/>
+      <c r="D193" s="107"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -5675,8 +5675,8 @@
       <c r="B194" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="120"/>
-      <c r="D194" s="121"/>
+      <c r="C194" s="106"/>
+      <c r="D194" s="107"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -5685,8 +5685,8 @@
       <c r="B195" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="120"/>
-      <c r="D195" s="121"/>
+      <c r="C195" s="106"/>
+      <c r="D195" s="107"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -5695,8 +5695,8 @@
       <c r="B196" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="120"/>
-      <c r="D196" s="121"/>
+      <c r="C196" s="106"/>
+      <c r="D196" s="107"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -5705,8 +5705,8 @@
       <c r="B197" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="120"/>
-      <c r="D197" s="121"/>
+      <c r="C197" s="106"/>
+      <c r="D197" s="107"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -5715,16 +5715,16 @@
       <c r="B198" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="120"/>
-      <c r="D198" s="121"/>
+      <c r="C198" s="106"/>
+      <c r="D198" s="107"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="116" t="s">
+      <c r="B199" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="117"/>
-      <c r="D199" s="118"/>
+      <c r="C199" s="109"/>
+      <c r="D199" s="110"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -5733,8 +5733,8 @@
       <c r="B200" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="120"/>
-      <c r="D200" s="121"/>
+      <c r="C200" s="106"/>
+      <c r="D200" s="107"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -5743,8 +5743,8 @@
       <c r="B201" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="120"/>
-      <c r="D201" s="121"/>
+      <c r="C201" s="106"/>
+      <c r="D201" s="107"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
@@ -5753,8 +5753,8 @@
       <c r="B202" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="120"/>
-      <c r="D202" s="121"/>
+      <c r="C202" s="106"/>
+      <c r="D202" s="107"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -5763,8 +5763,8 @@
       <c r="B203" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="134"/>
-      <c r="D203" s="135"/>
+      <c r="C203" s="121"/>
+      <c r="D203" s="122"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -5773,16 +5773,16 @@
       <c r="B204" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="134"/>
-      <c r="D204" s="135"/>
+      <c r="C204" s="121"/>
+      <c r="D204" s="122"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="116" t="s">
+      <c r="B205" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="117"/>
-      <c r="D205" s="118"/>
+      <c r="C205" s="109"/>
+      <c r="D205" s="110"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -5791,8 +5791,8 @@
       <c r="B206" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="120"/>
-      <c r="D206" s="121"/>
+      <c r="C206" s="106"/>
+      <c r="D206" s="107"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5801,8 +5801,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="136"/>
-      <c r="D207" s="123"/>
+      <c r="C207" s="123"/>
+      <c r="D207" s="112"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5811,8 +5811,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="122"/>
-      <c r="D208" s="123"/>
+      <c r="C208" s="116"/>
+      <c r="D208" s="112"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5821,8 +5821,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="122"/>
-      <c r="D209" s="123"/>
+      <c r="C209" s="116"/>
+      <c r="D209" s="112"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5831,8 +5831,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="122"/>
-      <c r="D210" s="123"/>
+      <c r="C210" s="116"/>
+      <c r="D210" s="112"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5841,16 +5841,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="122"/>
-      <c r="D211" s="123"/>
+      <c r="C211" s="116"/>
+      <c r="D211" s="112"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="116" t="s">
+      <c r="B212" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="117"/>
-      <c r="D212" s="118"/>
+      <c r="C212" s="109"/>
+      <c r="D212" s="110"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5859,8 +5859,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="120"/>
-      <c r="D213" s="121"/>
+      <c r="C213" s="106"/>
+      <c r="D213" s="107"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5869,8 +5869,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="120"/>
-      <c r="D214" s="121"/>
+      <c r="C214" s="106"/>
+      <c r="D214" s="107"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5879,8 +5879,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="120"/>
-      <c r="D215" s="121"/>
+      <c r="C215" s="106"/>
+      <c r="D215" s="107"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="26">
@@ -5889,11 +5889,164 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="132"/>
-      <c r="D216" s="133"/>
+      <c r="C216" s="119"/>
+      <c r="D216" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="B199:D199"/>
@@ -5918,159 +6071,6 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="129"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6198,10 +6198,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="129"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6266,7 +6266,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="128" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="143"/>
@@ -6548,10 +6548,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="129"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -6642,10 +6642,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="129"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6721,10 +6721,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="129"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6789,7 +6789,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="128" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="143"/>
@@ -7055,10 +7055,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="125"/>
+      <c r="C51" s="129"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
@@ -7112,7 +7112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
@@ -7145,10 +7145,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="129"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -7227,7 +7227,7 @@
       <c r="B13" s="150" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="156"/>
+      <c r="C13" s="161"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
@@ -7258,10 +7258,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="128" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="125"/>
+      <c r="C17" s="129"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7292,7 +7292,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="128" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="143"/>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="129"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -7771,10 +7771,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="54"/>
-      <c r="B76" s="157" t="s">
+      <c r="B76" s="152" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="158"/>
+      <c r="C76" s="153"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="55">
@@ -7841,10 +7841,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="54"/>
-      <c r="B84" s="157" t="s">
+      <c r="B84" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="C84" s="158"/>
+      <c r="C84" s="153"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="55">
@@ -7918,10 +7918,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="54"/>
-      <c r="B93" s="157" t="s">
+      <c r="B93" s="152" t="s">
         <v>297</v>
       </c>
-      <c r="C93" s="158"/>
+      <c r="C93" s="153"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="55">
@@ -7979,10 +7979,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="54"/>
-      <c r="B100" s="157" t="s">
+      <c r="B100" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="C100" s="158"/>
+      <c r="C100" s="153"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="55">
@@ -8022,10 +8022,10 @@
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55"/>
-      <c r="B105" s="152" t="s">
+      <c r="B105" s="154" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="159"/>
+      <c r="C105" s="158"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55">
@@ -8056,10 +8056,10 @@
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="54"/>
-      <c r="B109" s="157" t="s">
+      <c r="B109" s="152" t="s">
         <v>309</v>
       </c>
-      <c r="C109" s="158"/>
+      <c r="C109" s="153"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="55">
@@ -8117,10 +8117,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="54"/>
-      <c r="B116" s="157" t="s">
+      <c r="B116" s="152" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="158"/>
+      <c r="C116" s="153"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="55">
@@ -8178,10 +8178,10 @@
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="54"/>
-      <c r="B123" s="157" t="s">
+      <c r="B123" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="C123" s="158"/>
+      <c r="C123" s="153"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="55">
@@ -8239,10 +8239,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="54"/>
-      <c r="B130" s="157" t="s">
+      <c r="B130" s="152" t="s">
         <v>314</v>
       </c>
-      <c r="C130" s="158"/>
+      <c r="C130" s="153"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="55">
@@ -8300,10 +8300,10 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="54"/>
-      <c r="B137" s="157" t="s">
+      <c r="B137" s="152" t="s">
         <v>315</v>
       </c>
-      <c r="C137" s="158"/>
+      <c r="C137" s="153"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="55">
@@ -8361,10 +8361,10 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="55"/>
-      <c r="B144" s="152" t="s">
+      <c r="B144" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="153"/>
+      <c r="C144" s="155"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="55">
@@ -8422,10 +8422,10 @@
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="55"/>
-      <c r="B151" s="154" t="s">
+      <c r="B151" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="C151" s="155"/>
+      <c r="C151" s="160"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="55">
@@ -8483,10 +8483,10 @@
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="54"/>
-      <c r="B158" s="157" t="s">
+      <c r="B158" s="152" t="s">
         <v>329</v>
       </c>
-      <c r="C158" s="158"/>
+      <c r="C158" s="153"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="55">
@@ -8517,10 +8517,10 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="54"/>
-      <c r="B162" s="157" t="s">
+      <c r="B162" s="152" t="s">
         <v>333</v>
       </c>
-      <c r="C162" s="158"/>
+      <c r="C162" s="153"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="55">
@@ -8551,10 +8551,10 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="54"/>
-      <c r="B166" s="157" t="s">
+      <c r="B166" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="C166" s="158"/>
+      <c r="C166" s="153"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="55">
@@ -8675,10 +8675,10 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="55"/>
-      <c r="B180" s="152" t="s">
+      <c r="B180" s="154" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="153"/>
+      <c r="C180" s="155"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="55">
@@ -8772,10 +8772,10 @@
     </row>
     <row r="191" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="56"/>
-      <c r="B191" s="160" t="s">
+      <c r="B191" s="156" t="s">
         <v>362</v>
       </c>
-      <c r="C191" s="161"/>
+      <c r="C191" s="157"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="55">
@@ -8815,21 +8815,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="B61:C61"/>
@@ -8846,6 +8831,21 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B191:C191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
+++ b/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734CE36-14F5-4E09-B621-36A964C547FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300B9C1-5E61-4CD8-A287-6816AA81951E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -2709,7 +2709,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3777,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A193" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -6086,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C55"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7112,7 +7112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A180" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>

--- a/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
+++ b/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300B9C1-5E61-4CD8-A287-6816AA81951E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C903E3A-6C22-4E6A-B746-AF979DF0EAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1890,9 +1890,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1907,9 +1904,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1960,6 +1954,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1996,56 +2041,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2053,21 +2089,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2077,81 +2146,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,16 +2179,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,17 +2209,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2239,15 +2236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>1303564</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:colOff>2979964</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1343025</xdr:rowOff>
+      <xdr:rowOff>1333953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2277,7 +2274,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3333750" y="180975"/>
+          <a:off x="3653064" y="171903"/>
           <a:ext cx="1676400" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2709,7 +2706,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3358,235 +3355,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="100"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
       <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3750,12 +3747,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3766,6 +3757,12 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3777,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A176" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3791,26 +3788,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3819,8 +3816,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3829,8 +3826,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3839,8 +3836,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="133"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3849,8 +3846,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3859,8 +3856,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3869,8 +3866,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3879,8 +3876,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3889,8 +3886,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3899,8 +3896,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3909,8 +3906,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3919,8 +3916,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="131"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="105"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3929,8 +3926,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="131"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="105"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3939,8 +3936,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="105"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3949,8 +3946,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="105"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -3959,84 +3956,84 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="64" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4044,131 +4041,131 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="63"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -4184,191 +4181,191 @@
       <c r="A41" s="1">
         <v>35</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="63"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="60" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="49"/>
-      <c r="D44" s="63"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="116"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="107"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="119"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="106"/>
-      <c r="D52" s="107"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="119"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="107"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="119"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="106"/>
-      <c r="D54" s="107"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="119"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="107"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="106"/>
-      <c r="D56" s="107"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="119"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="109"/>
-      <c r="D57" s="110"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="109"/>
-      <c r="D58" s="110"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="116"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="106"/>
-      <c r="D59" s="107"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="119"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="109"/>
-      <c r="D60" s="110"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4377,8 +4374,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="112"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="121"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4387,8 +4384,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="112"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="121"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4397,8 +4394,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="112"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="121"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4407,8 +4404,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="112"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="121"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4417,8 +4414,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="112"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="121"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4427,200 +4424,200 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="116"/>
-      <c r="D66" s="112"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="121"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="116"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="106"/>
-      <c r="D68" s="107"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="119"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="109"/>
-      <c r="D69" s="110"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="116"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="107"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="119"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="106"/>
-      <c r="D71" s="107"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="119"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="106"/>
-      <c r="D72" s="107"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="119"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="106"/>
-      <c r="D73" s="107"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="119"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="106"/>
-      <c r="D74" s="107"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="119"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="128" t="s">
+      <c r="B75" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="128"/>
-      <c r="D75" s="129"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="123"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="106"/>
-      <c r="D76" s="107"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="119"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="107"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="119"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="106"/>
-      <c r="D78" s="107"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="119"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="106"/>
-      <c r="D79" s="107"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="106"/>
-      <c r="D80" s="107"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="119"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="128" t="s">
+      <c r="B81" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="128"/>
-      <c r="D81" s="129"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="123"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="106"/>
-      <c r="D82" s="107"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="119"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="106"/>
-      <c r="D83" s="107"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="119"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="106"/>
-      <c r="D84" s="107"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="119"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="106"/>
-      <c r="D85" s="107"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="119"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="106"/>
-      <c r="D86" s="107"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="119"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4629,104 +4626,104 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="106"/>
-      <c r="D87" s="107"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="119"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="106"/>
-      <c r="D88" s="107"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="119"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="106"/>
-      <c r="D89" s="107"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="119"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="109"/>
-      <c r="D90" s="110"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="116"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="106"/>
-      <c r="D91" s="107"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="119"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="106"/>
-      <c r="D92" s="107"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="119"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="107"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="119"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="106"/>
-      <c r="D94" s="107"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="119"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="108" t="s">
+      <c r="B95" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="109"/>
-      <c r="D95" s="110"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="116"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="106"/>
-      <c r="D96" s="107"/>
+      <c r="C96" s="118"/>
+      <c r="D96" s="119"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="116"/>
-      <c r="D97" s="112"/>
+      <c r="C97" s="120"/>
+      <c r="D97" s="121"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4735,280 +4732,280 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="106"/>
-      <c r="D98" s="107"/>
+      <c r="C98" s="118"/>
+      <c r="D98" s="119"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="106"/>
-      <c r="D99" s="107"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="119"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="106"/>
-      <c r="D100" s="107"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="119"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="109"/>
-      <c r="D101" s="110"/>
+      <c r="C101" s="115"/>
+      <c r="D101" s="116"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="116"/>
-      <c r="D102" s="112"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="121"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="116"/>
-      <c r="D103" s="112"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="121"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="116"/>
-      <c r="D104" s="112"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="121"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="116"/>
-      <c r="D105" s="112"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="121"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="108" t="s">
+      <c r="B106" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="109"/>
-      <c r="D106" s="110"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="116"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="106"/>
-      <c r="D107" s="107"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="119"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="108" t="s">
+      <c r="B108" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="109"/>
-      <c r="D108" s="110"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="116"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="106"/>
-      <c r="D109" s="107"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="119"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
-      <c r="B110" s="62" t="s">
+      <c r="B110" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="106"/>
-      <c r="D110" s="107"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="119"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
-      <c r="B111" s="62" t="s">
+      <c r="B111" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="106"/>
-      <c r="D111" s="107"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="119"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="106"/>
-      <c r="D112" s="107"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="119"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="106"/>
-      <c r="D113" s="107"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="119"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="106"/>
-      <c r="D114" s="107"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="119"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
-      <c r="B115" s="62" t="s">
+      <c r="B115" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="106"/>
-      <c r="D115" s="107"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="119"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="106"/>
-      <c r="D116" s="107"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="119"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
-      <c r="B117" s="62" t="s">
+      <c r="B117" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="106"/>
-      <c r="D117" s="107"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="119"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
-      <c r="B118" s="62" t="s">
+      <c r="B118" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="106"/>
-      <c r="D118" s="107"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="119"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
-      <c r="B119" s="62" t="s">
+      <c r="B119" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="116"/>
-      <c r="D119" s="112"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="121"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
-      <c r="B120" s="62" t="s">
+      <c r="B120" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="116"/>
-      <c r="D120" s="112"/>
+      <c r="C120" s="120"/>
+      <c r="D120" s="121"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
-      <c r="B121" s="62" t="s">
+      <c r="B121" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="116"/>
-      <c r="D121" s="112"/>
+      <c r="C121" s="120"/>
+      <c r="D121" s="121"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
-      <c r="B122" s="62" t="s">
+      <c r="B122" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="116"/>
-      <c r="D122" s="112"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="121"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
-      <c r="B123" s="62" t="s">
+      <c r="B123" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="106"/>
-      <c r="D123" s="107"/>
+      <c r="C123" s="118"/>
+      <c r="D123" s="119"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
-      <c r="B124" s="62" t="s">
+      <c r="B124" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="106"/>
-      <c r="D124" s="107"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="119"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
-      <c r="B125" s="62" t="s">
+      <c r="B125" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="106"/>
-      <c r="D125" s="107"/>
+      <c r="C125" s="118"/>
+      <c r="D125" s="119"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="108" t="s">
+      <c r="B126" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="126"/>
-      <c r="D126" s="127"/>
+      <c r="C126" s="124"/>
+      <c r="D126" s="125"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
@@ -5017,18 +5014,18 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="106"/>
-      <c r="D127" s="107"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="119"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
-      <c r="B128" s="62" t="s">
+      <c r="B128" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="106"/>
-      <c r="D128" s="107"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="119"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5037,154 +5034,154 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="106"/>
-      <c r="D129" s="107"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="119"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
-      <c r="B130" s="62" t="s">
+      <c r="B130" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="116"/>
-      <c r="D130" s="112"/>
+      <c r="C130" s="120"/>
+      <c r="D130" s="121"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="108" t="s">
+      <c r="B131" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="109"/>
-      <c r="D131" s="110"/>
+      <c r="C131" s="115"/>
+      <c r="D131" s="116"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>110</v>
       </c>
-      <c r="B132" s="62" t="s">
+      <c r="B132" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="106"/>
-      <c r="D132" s="107"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="119"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>111</v>
       </c>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="106"/>
-      <c r="D133" s="107"/>
+      <c r="C133" s="118"/>
+      <c r="D133" s="119"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>112</v>
       </c>
-      <c r="B134" s="57" t="s">
+      <c r="B134" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="116"/>
-      <c r="D134" s="112"/>
+      <c r="C134" s="120"/>
+      <c r="D134" s="121"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
-      <c r="B135" s="57" t="s">
+      <c r="B135" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="106"/>
-      <c r="D135" s="107"/>
+      <c r="C135" s="118"/>
+      <c r="D135" s="119"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
-      <c r="B136" s="57" t="s">
+      <c r="B136" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="106"/>
-      <c r="D136" s="107"/>
+      <c r="C136" s="118"/>
+      <c r="D136" s="119"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
-      <c r="B137" s="57" t="s">
+      <c r="B137" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="116"/>
-      <c r="D137" s="112"/>
+      <c r="C137" s="120"/>
+      <c r="D137" s="121"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
-      <c r="B138" s="57" t="s">
+      <c r="B138" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="106"/>
-      <c r="D138" s="107"/>
+      <c r="C138" s="118"/>
+      <c r="D138" s="119"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
-      <c r="B139" s="57" t="s">
+      <c r="B139" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="106"/>
-      <c r="D139" s="107"/>
+      <c r="C139" s="118"/>
+      <c r="D139" s="119"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
-      <c r="B140" s="57" t="s">
+      <c r="B140" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="116"/>
-      <c r="D140" s="112"/>
+      <c r="C140" s="120"/>
+      <c r="D140" s="121"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
-      <c r="B141" s="57" t="s">
+      <c r="B141" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="116"/>
-      <c r="D141" s="112"/>
+      <c r="C141" s="120"/>
+      <c r="D141" s="121"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="106"/>
-      <c r="D142" s="107"/>
+      <c r="C142" s="118"/>
+      <c r="D142" s="119"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
-      <c r="B143" s="57" t="s">
+      <c r="B143" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="111"/>
-      <c r="D143" s="112"/>
+      <c r="C143" s="135"/>
+      <c r="D143" s="121"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="108" t="s">
+      <c r="B144" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="109"/>
-      <c r="D144" s="110"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="116"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5193,64 +5190,64 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="124"/>
-      <c r="D145" s="125"/>
+      <c r="C145" s="128"/>
+      <c r="D145" s="129"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="108" t="s">
+      <c r="B146" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="109"/>
-      <c r="D146" s="110"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="116"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>124</v>
       </c>
-      <c r="B147" s="62" t="s">
+      <c r="B147" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="106"/>
-      <c r="D147" s="107"/>
+      <c r="C147" s="118"/>
+      <c r="D147" s="119"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
-      <c r="B148" s="62" t="s">
+      <c r="B148" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="106"/>
-      <c r="D148" s="107"/>
+      <c r="C148" s="118"/>
+      <c r="D148" s="119"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>126</v>
       </c>
-      <c r="B149" s="62" t="s">
+      <c r="B149" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="106"/>
-      <c r="D149" s="107"/>
+      <c r="C149" s="118"/>
+      <c r="D149" s="119"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="108" t="s">
+      <c r="B150" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="109"/>
-      <c r="D150" s="110"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="116"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
-      <c r="B151" s="65" t="s">
+      <c r="B151" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="65" t="s">
+      <c r="C151" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="66" t="s">
+      <c r="D151" s="64" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5258,169 +5255,169 @@
       <c r="A152" s="1">
         <v>127</v>
       </c>
-      <c r="B152" s="62" t="s">
+      <c r="B152" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="63"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="61"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>128</v>
       </c>
-      <c r="B153" s="62" t="s">
+      <c r="B153" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="62"/>
-      <c r="D153" s="63"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="61"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>129</v>
       </c>
-      <c r="B154" s="62" t="s">
+      <c r="B154" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C154" s="62"/>
-      <c r="D154" s="63"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="61"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>130</v>
       </c>
-      <c r="B155" s="62" t="s">
+      <c r="B155" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="62"/>
-      <c r="D155" s="63"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="61"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>131</v>
       </c>
-      <c r="B156" s="62" t="s">
+      <c r="B156" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="62"/>
-      <c r="D156" s="63"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="61"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>132</v>
       </c>
-      <c r="B157" s="62" t="s">
+      <c r="B157" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="62"/>
-      <c r="D157" s="63"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="61"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>133</v>
       </c>
-      <c r="B158" s="62" t="s">
+      <c r="B158" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="62"/>
-      <c r="D158" s="63"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="61"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="108" t="s">
+      <c r="B159" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="109"/>
-      <c r="D159" s="110"/>
+      <c r="C159" s="115"/>
+      <c r="D159" s="116"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
-      <c r="B160" s="62" t="s">
+      <c r="B160" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="117"/>
-      <c r="D160" s="118"/>
+      <c r="C160" s="126"/>
+      <c r="D160" s="127"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
-      <c r="B161" s="62" t="s">
+      <c r="B161" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="117"/>
-      <c r="D161" s="118"/>
+      <c r="C161" s="126"/>
+      <c r="D161" s="127"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>136</v>
       </c>
-      <c r="B162" s="62" t="s">
+      <c r="B162" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="117"/>
-      <c r="D162" s="118"/>
+      <c r="C162" s="126"/>
+      <c r="D162" s="127"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>137</v>
       </c>
-      <c r="B163" s="62" t="s">
+      <c r="B163" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="117"/>
-      <c r="D163" s="118"/>
+      <c r="C163" s="126"/>
+      <c r="D163" s="127"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>138</v>
       </c>
-      <c r="B164" s="62" t="s">
+      <c r="B164" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="117"/>
-      <c r="D164" s="118"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="127"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>139</v>
       </c>
-      <c r="B165" s="62" t="s">
+      <c r="B165" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="117"/>
-      <c r="D165" s="118"/>
+      <c r="C165" s="126"/>
+      <c r="D165" s="127"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>140</v>
       </c>
-      <c r="B166" s="62" t="s">
+      <c r="B166" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="117"/>
-      <c r="D166" s="118"/>
+      <c r="C166" s="126"/>
+      <c r="D166" s="127"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>141</v>
       </c>
-      <c r="B167" s="62" t="s">
+      <c r="B167" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="117"/>
-      <c r="D167" s="118"/>
+      <c r="C167" s="126"/>
+      <c r="D167" s="127"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
-      <c r="B168" s="65" t="s">
+      <c r="B168" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C168" s="65" t="s">
+      <c r="C168" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D168" s="66" t="s">
+      <c r="D168" s="64" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5428,371 +5425,371 @@
       <c r="A169" s="1">
         <v>142</v>
       </c>
-      <c r="B169" s="62" t="s">
+      <c r="B169" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="62"/>
-      <c r="D169" s="63"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="61"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
-      <c r="B170" s="62" t="s">
+      <c r="B170" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="63"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="61"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>144</v>
       </c>
-      <c r="B171" s="62" t="s">
+      <c r="B171" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="62"/>
-      <c r="D171" s="63"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="61"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>145</v>
       </c>
-      <c r="B172" s="62" t="s">
+      <c r="B172" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="62"/>
-      <c r="D172" s="63"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="61"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>146</v>
       </c>
-      <c r="B173" s="62" t="s">
+      <c r="B173" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="62"/>
-      <c r="D173" s="63"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="61"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>147</v>
       </c>
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="62"/>
-      <c r="D174" s="63"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="61"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>148</v>
       </c>
-      <c r="B175" s="62" t="s">
+      <c r="B175" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="62"/>
-      <c r="D175" s="63"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="61"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="108" t="s">
+      <c r="B176" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="109"/>
-      <c r="D176" s="110"/>
+      <c r="C176" s="115"/>
+      <c r="D176" s="116"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
-      <c r="B177" s="62" t="s">
+      <c r="B177" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="106"/>
-      <c r="D177" s="107"/>
+      <c r="C177" s="118"/>
+      <c r="D177" s="119"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
-      <c r="B178" s="62" t="s">
+      <c r="B178" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="106"/>
-      <c r="D178" s="107"/>
+      <c r="C178" s="118"/>
+      <c r="D178" s="119"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>151</v>
       </c>
-      <c r="B179" s="62" t="s">
+      <c r="B179" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="116"/>
-      <c r="D179" s="112"/>
+      <c r="C179" s="120"/>
+      <c r="D179" s="121"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="108" t="s">
+      <c r="B180" s="114" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="109"/>
-      <c r="D180" s="110"/>
+      <c r="C180" s="115"/>
+      <c r="D180" s="116"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
-      <c r="B181" s="62" t="s">
+      <c r="B181" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="117"/>
-      <c r="D181" s="118"/>
+      <c r="C181" s="118"/>
+      <c r="D181" s="119"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
-      <c r="B182" s="62" t="s">
+      <c r="B182" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="106"/>
-      <c r="D182" s="107"/>
+      <c r="C182" s="118"/>
+      <c r="D182" s="119"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="108" t="s">
+      <c r="B183" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="109"/>
-      <c r="D183" s="110"/>
+      <c r="C183" s="115"/>
+      <c r="D183" s="116"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
-      <c r="B184" s="62" t="s">
+      <c r="B184" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="106"/>
-      <c r="D184" s="107"/>
+      <c r="C184" s="118"/>
+      <c r="D184" s="119"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
-      <c r="B185" s="62" t="s">
+      <c r="B185" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="106"/>
-      <c r="D185" s="107"/>
+      <c r="C185" s="118"/>
+      <c r="D185" s="119"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>156</v>
       </c>
-      <c r="B186" s="62" t="s">
+      <c r="B186" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="106"/>
-      <c r="D186" s="107"/>
+      <c r="C186" s="118"/>
+      <c r="D186" s="119"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>157</v>
       </c>
-      <c r="B187" s="62" t="s">
+      <c r="B187" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="106"/>
-      <c r="D187" s="107"/>
+      <c r="C187" s="118"/>
+      <c r="D187" s="119"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>158</v>
       </c>
-      <c r="B188" s="62" t="s">
+      <c r="B188" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="113"/>
-      <c r="D188" s="114"/>
+      <c r="C188" s="136"/>
+      <c r="D188" s="137"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>159</v>
       </c>
-      <c r="B189" s="62" t="s">
+      <c r="B189" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="115"/>
-      <c r="D189" s="107"/>
+      <c r="C189" s="138"/>
+      <c r="D189" s="119"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>160</v>
       </c>
-      <c r="B190" s="62" t="s">
+      <c r="B190" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="116"/>
-      <c r="D190" s="112"/>
+      <c r="C190" s="120"/>
+      <c r="D190" s="121"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>161</v>
       </c>
-      <c r="B191" s="62" t="s">
+      <c r="B191" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="106"/>
-      <c r="D191" s="107"/>
+      <c r="C191" s="118"/>
+      <c r="D191" s="119"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>162</v>
       </c>
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="106"/>
-      <c r="D192" s="107"/>
+      <c r="C192" s="118"/>
+      <c r="D192" s="119"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>163</v>
       </c>
-      <c r="B193" s="62" t="s">
+      <c r="B193" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="106"/>
-      <c r="D193" s="107"/>
+      <c r="C193" s="118"/>
+      <c r="D193" s="119"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>164</v>
       </c>
-      <c r="B194" s="62" t="s">
+      <c r="B194" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="106"/>
-      <c r="D194" s="107"/>
+      <c r="C194" s="118"/>
+      <c r="D194" s="119"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>165</v>
       </c>
-      <c r="B195" s="62" t="s">
+      <c r="B195" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="106"/>
-      <c r="D195" s="107"/>
+      <c r="C195" s="118"/>
+      <c r="D195" s="119"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>166</v>
       </c>
-      <c r="B196" s="62" t="s">
+      <c r="B196" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="106"/>
-      <c r="D196" s="107"/>
+      <c r="C196" s="118"/>
+      <c r="D196" s="119"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>167</v>
       </c>
-      <c r="B197" s="62" t="s">
+      <c r="B197" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="106"/>
-      <c r="D197" s="107"/>
+      <c r="C197" s="118"/>
+      <c r="D197" s="119"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>168</v>
       </c>
-      <c r="B198" s="62" t="s">
+      <c r="B198" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="106"/>
-      <c r="D198" s="107"/>
+      <c r="C198" s="118"/>
+      <c r="D198" s="119"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="108" t="s">
+      <c r="B199" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="109"/>
-      <c r="D199" s="110"/>
+      <c r="C199" s="115"/>
+      <c r="D199" s="116"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
-      <c r="B200" s="62" t="s">
+      <c r="B200" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="106"/>
-      <c r="D200" s="107"/>
+      <c r="C200" s="118"/>
+      <c r="D200" s="119"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>170</v>
       </c>
-      <c r="B201" s="62" t="s">
+      <c r="B201" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="106"/>
-      <c r="D201" s="107"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="119"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
-      <c r="B202" s="62" t="s">
+      <c r="B202" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="106"/>
-      <c r="D202" s="107"/>
+      <c r="C202" s="118"/>
+      <c r="D202" s="119"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>172</v>
       </c>
-      <c r="B203" s="58" t="s">
+      <c r="B203" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="121"/>
-      <c r="D203" s="122"/>
+      <c r="C203" s="132"/>
+      <c r="D203" s="133"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
-      <c r="B204" s="58" t="s">
+      <c r="B204" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="121"/>
-      <c r="D204" s="122"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="133"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="108" t="s">
+      <c r="B205" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="109"/>
-      <c r="D205" s="110"/>
+      <c r="C205" s="115"/>
+      <c r="D205" s="116"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
-      <c r="B206" s="62" t="s">
+      <c r="B206" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="106"/>
-      <c r="D206" s="107"/>
+      <c r="C206" s="118"/>
+      <c r="D206" s="119"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5801,8 +5798,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="123"/>
-      <c r="D207" s="112"/>
+      <c r="C207" s="134"/>
+      <c r="D207" s="121"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5811,8 +5808,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="116"/>
-      <c r="D208" s="112"/>
+      <c r="C208" s="120"/>
+      <c r="D208" s="121"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5821,8 +5818,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="116"/>
-      <c r="D209" s="112"/>
+      <c r="C209" s="120"/>
+      <c r="D209" s="121"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5831,8 +5828,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="116"/>
-      <c r="D210" s="112"/>
+      <c r="C210" s="120"/>
+      <c r="D210" s="121"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5841,16 +5838,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="116"/>
-      <c r="D211" s="112"/>
+      <c r="C211" s="120"/>
+      <c r="D211" s="121"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="108" t="s">
+      <c r="B212" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="109"/>
-      <c r="D212" s="110"/>
+      <c r="C212" s="115"/>
+      <c r="D212" s="116"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5859,8 +5856,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="106"/>
-      <c r="D213" s="107"/>
+      <c r="C213" s="118"/>
+      <c r="D213" s="119"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5869,8 +5866,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="106"/>
-      <c r="D214" s="107"/>
+      <c r="C214" s="118"/>
+      <c r="D214" s="119"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5879,8 +5876,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="106"/>
-      <c r="D215" s="107"/>
+      <c r="C215" s="118"/>
+      <c r="D215" s="119"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="26">
@@ -5889,35 +5886,140 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="119"/>
-      <c r="D216" s="120"/>
+      <c r="C216" s="130"/>
+      <c r="D216" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5942,135 +6044,30 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6099,30 +6096,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="140"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="123"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6198,10 +6195,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="123"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6210,32 +6207,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6259,26 +6256,26 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="58" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="141"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
@@ -6462,10 +6459,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="140"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -6532,10 +6529,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="142"/>
+      <c r="C51" s="140"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="50">
@@ -6548,28 +6545,28 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="129"/>
+      <c r="C53" s="123"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="61"/>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="69">
+      <c r="A55" s="67">
         <v>45</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="66"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6622,30 +6619,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="139" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="140"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="123"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6721,10 +6718,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="123"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6733,32 +6730,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="149"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6782,26 +6779,26 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="58" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="141"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
@@ -6985,10 +6982,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="140"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -7055,28 +7052,28 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="128" t="s">
+      <c r="B51" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="129"/>
+      <c r="C51" s="123"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>43</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="61"/>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="69">
+      <c r="A53" s="67">
         <v>44</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="66"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7112,8 +7109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7125,30 +7122,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="142"/>
+      <c r="C3" s="140"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="123"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -7224,10 +7221,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="161"/>
+      <c r="C13" s="154"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
@@ -7251,17 +7248,17 @@
       <c r="A16" s="50">
         <v>11</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="129"/>
+      <c r="C17" s="123"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7270,41 +7267,41 @@
       <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="141"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -7488,10 +7485,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="141" t="s">
+      <c r="B43" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="140"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -7558,10 +7555,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="142"/>
+      <c r="C51" s="140"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="50">
@@ -7574,45 +7571,45 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="128" t="s">
+      <c r="B53" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="129"/>
+      <c r="C53" s="123"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="63"/>
+      <c r="C54" s="61"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="61"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="54"/>
-      <c r="B56" s="141" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="142"/>
+      <c r="C56" s="140"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="141" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="139" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="142"/>
+      <c r="C57" s="140"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="54">
+      <c r="A58" s="53">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -7621,7 +7618,7 @@
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="54">
+      <c r="A59" s="53">
         <v>47</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -7630,23 +7627,23 @@
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="54">
+      <c r="A60" s="53">
         <v>44</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
-      <c r="B61" s="141" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="C61" s="142"/>
+      <c r="C61" s="140"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="55">
+      <c r="A62" s="54">
         <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -7655,7 +7652,7 @@
       <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="55">
+      <c r="A63" s="54">
         <v>46</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -7664,7 +7661,7 @@
       <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="55">
+      <c r="A64" s="54">
         <v>47</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -7673,7 +7670,7 @@
       <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="55">
+      <c r="A65" s="54">
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -7682,7 +7679,7 @@
       <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="55">
+      <c r="A66" s="54">
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7691,7 +7688,7 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="55">
+      <c r="A67" s="54">
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -7700,7 +7697,7 @@
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="55">
+      <c r="A68" s="54">
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -7709,7 +7706,7 @@
       <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="55">
+      <c r="A69" s="54">
         <v>52</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -7718,7 +7715,7 @@
       <c r="C69" s="17"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="55">
+      <c r="A70" s="54">
         <v>53</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -7727,14 +7724,14 @@
       <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="141" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="142"/>
+      <c r="C71" s="140"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="55">
+      <c r="A72" s="54">
         <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -7743,7 +7740,7 @@
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="55">
+      <c r="A73" s="54">
         <v>55</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -7752,7 +7749,7 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="55">
+      <c r="A74" s="54">
         <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -7761,7 +7758,7 @@
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="55">
+      <c r="A75" s="54">
         <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -7770,14 +7767,14 @@
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="54"/>
-      <c r="B76" s="152" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="C76" s="153"/>
+      <c r="C76" s="156"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="55">
+      <c r="A77" s="54">
         <v>58</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -7786,7 +7783,7 @@
       <c r="C77" s="17"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="55">
+      <c r="A78" s="54">
         <v>59</v>
       </c>
       <c r="B78" s="18" t="s">
@@ -7795,7 +7792,7 @@
       <c r="C78" s="17"/>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="55">
+      <c r="A79" s="54">
         <v>60</v>
       </c>
       <c r="B79" s="18" t="s">
@@ -7804,7 +7801,7 @@
       <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="55">
+      <c r="A80" s="54">
         <v>61</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -7813,7 +7810,7 @@
       <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="55">
+      <c r="A81" s="54">
         <v>62</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -7822,7 +7819,7 @@
       <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="55">
+      <c r="A82" s="54">
         <v>63</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -7831,7 +7828,7 @@
       <c r="C82" s="17"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="55">
+      <c r="A83" s="54">
         <v>64</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -7840,14 +7837,14 @@
       <c r="C83" s="17"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="54"/>
-      <c r="B84" s="152" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="155" t="s">
         <v>288</v>
       </c>
-      <c r="C84" s="153"/>
+      <c r="C84" s="156"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="55">
+      <c r="A85" s="54">
         <v>65</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -7856,7 +7853,7 @@
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="55">
+      <c r="A86" s="54">
         <v>66</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -7865,14 +7862,14 @@
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="55"/>
-      <c r="B87" s="141" t="s">
+      <c r="A87" s="54"/>
+      <c r="B87" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="C87" s="142"/>
+      <c r="C87" s="140"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="55">
+      <c r="A88" s="54">
         <v>67</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -7881,7 +7878,7 @@
       <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="55">
+      <c r="A89" s="54">
         <v>68</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -7890,7 +7887,7 @@
       <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="55">
+      <c r="A90" s="54">
         <v>69</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -7899,7 +7896,7 @@
       <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="55">
+      <c r="A91" s="54">
         <v>70</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -7908,7 +7905,7 @@
       <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="55">
+      <c r="A92" s="54">
         <v>71</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -7917,14 +7914,14 @@
       <c r="C92" s="21"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="54"/>
-      <c r="B93" s="152" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="C93" s="153"/>
+      <c r="C93" s="156"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="55">
+      <c r="A94" s="54">
         <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -7933,7 +7930,7 @@
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="55">
+      <c r="A95" s="54">
         <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -7942,7 +7939,7 @@
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="55">
+      <c r="A96" s="54">
         <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -7951,7 +7948,7 @@
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="55">
+      <c r="A97" s="54">
         <v>75</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -7960,7 +7957,7 @@
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="55">
+      <c r="A98" s="54">
         <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -7969,7 +7966,7 @@
       <c r="C98" s="17"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="55">
+      <c r="A99" s="54">
         <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -7978,14 +7975,14 @@
       <c r="C99" s="17"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="54"/>
-      <c r="B100" s="152" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="C100" s="153"/>
+      <c r="C100" s="156"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="55">
+      <c r="A101" s="54">
         <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -7994,7 +7991,7 @@
       <c r="C101" s="17"/>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="55">
+      <c r="A102" s="54">
         <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -8003,7 +8000,7 @@
       <c r="C102" s="17"/>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="55">
+      <c r="A103" s="54">
         <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -8012,7 +8009,7 @@
       <c r="C103" s="17"/>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="55">
+      <c r="A104" s="54">
         <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -8021,14 +8018,14 @@
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="55"/>
-      <c r="B105" s="154" t="s">
+      <c r="A105" s="54"/>
+      <c r="B105" s="150" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="158"/>
+      <c r="C105" s="157"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="55">
+      <c r="A106" s="54">
         <v>82</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -8037,7 +8034,7 @@
       <c r="C106" s="17"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="55">
+      <c r="A107" s="54">
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -8046,7 +8043,7 @@
       <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="55">
+      <c r="A108" s="54">
         <v>84</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -8055,14 +8052,14 @@
       <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="54"/>
-      <c r="B109" s="152" t="s">
+      <c r="A109" s="53"/>
+      <c r="B109" s="155" t="s">
         <v>309</v>
       </c>
-      <c r="C109" s="153"/>
+      <c r="C109" s="156"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="55">
+      <c r="A110" s="54">
         <v>85</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -8071,7 +8068,7 @@
       <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="55">
+      <c r="A111" s="54">
         <v>86</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -8080,7 +8077,7 @@
       <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="55">
+      <c r="A112" s="54">
         <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -8089,7 +8086,7 @@
       <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="55">
+      <c r="A113" s="54">
         <v>88</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -8098,7 +8095,7 @@
       <c r="C113" s="17"/>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="55">
+      <c r="A114" s="54">
         <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -8107,7 +8104,7 @@
       <c r="C114" s="17"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="55">
+      <c r="A115" s="54">
         <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -8116,14 +8113,14 @@
       <c r="C115" s="17"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="54"/>
-      <c r="B116" s="152" t="s">
+      <c r="A116" s="53"/>
+      <c r="B116" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="153"/>
+      <c r="C116" s="156"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="55">
+      <c r="A117" s="54">
         <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -8132,7 +8129,7 @@
       <c r="C117" s="17"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="55">
+      <c r="A118" s="54">
         <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -8141,7 +8138,7 @@
       <c r="C118" s="17"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="55">
+      <c r="A119" s="54">
         <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -8150,7 +8147,7 @@
       <c r="C119" s="17"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="55">
+      <c r="A120" s="54">
         <v>94</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -8159,7 +8156,7 @@
       <c r="C120" s="17"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="55">
+      <c r="A121" s="54">
         <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -8168,7 +8165,7 @@
       <c r="C121" s="17"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="55">
+      <c r="A122" s="54">
         <v>96</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -8177,14 +8174,14 @@
       <c r="C122" s="17"/>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="54"/>
-      <c r="B123" s="152" t="s">
+      <c r="A123" s="53"/>
+      <c r="B123" s="155" t="s">
         <v>313</v>
       </c>
-      <c r="C123" s="153"/>
+      <c r="C123" s="156"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="55">
+      <c r="A124" s="54">
         <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -8193,7 +8190,7 @@
       <c r="C124" s="17"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="55">
+      <c r="A125" s="54">
         <v>98</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -8202,7 +8199,7 @@
       <c r="C125" s="17"/>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="55">
+      <c r="A126" s="54">
         <v>99</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -8211,7 +8208,7 @@
       <c r="C126" s="17"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="55">
+      <c r="A127" s="54">
         <v>100</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -8220,7 +8217,7 @@
       <c r="C127" s="17"/>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="55">
+      <c r="A128" s="54">
         <v>101</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -8229,7 +8226,7 @@
       <c r="C128" s="17"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="55">
+      <c r="A129" s="54">
         <v>102</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -8238,14 +8235,14 @@
       <c r="C129" s="17"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="54"/>
-      <c r="B130" s="152" t="s">
+      <c r="A130" s="53"/>
+      <c r="B130" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="C130" s="153"/>
+      <c r="C130" s="156"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="55">
+      <c r="A131" s="54">
         <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -8254,7 +8251,7 @@
       <c r="C131" s="17"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="55">
+      <c r="A132" s="54">
         <v>104</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -8263,7 +8260,7 @@
       <c r="C132" s="17"/>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="55">
+      <c r="A133" s="54">
         <v>105</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -8272,7 +8269,7 @@
       <c r="C133" s="17"/>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="55">
+      <c r="A134" s="54">
         <v>106</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -8281,7 +8278,7 @@
       <c r="C134" s="17"/>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="55">
+      <c r="A135" s="54">
         <v>107</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -8290,7 +8287,7 @@
       <c r="C135" s="17"/>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="55">
+      <c r="A136" s="54">
         <v>108</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -8299,14 +8296,14 @@
       <c r="C136" s="17"/>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="54"/>
-      <c r="B137" s="152" t="s">
+      <c r="A137" s="53"/>
+      <c r="B137" s="155" t="s">
         <v>315</v>
       </c>
-      <c r="C137" s="153"/>
+      <c r="C137" s="156"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="55">
+      <c r="A138" s="54">
         <v>109</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -8315,7 +8312,7 @@
       <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="55">
+      <c r="A139" s="54">
         <v>110</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -8324,7 +8321,7 @@
       <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="55">
+      <c r="A140" s="54">
         <v>111</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -8333,7 +8330,7 @@
       <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="55">
+      <c r="A141" s="54">
         <v>112</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -8342,7 +8339,7 @@
       <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="55">
+      <c r="A142" s="54">
         <v>113</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -8351,7 +8348,7 @@
       <c r="C142" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="55">
+      <c r="A143" s="54">
         <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -8360,14 +8357,14 @@
       <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="55"/>
-      <c r="B144" s="154" t="s">
+      <c r="A144" s="54"/>
+      <c r="B144" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="155"/>
+      <c r="C144" s="151"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="55">
+      <c r="A145" s="54">
         <v>115</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -8376,7 +8373,7 @@
       <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="55">
+      <c r="A146" s="54">
         <v>116</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -8385,7 +8382,7 @@
       <c r="C146" s="17"/>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="55">
+      <c r="A147" s="54">
         <v>117</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -8394,7 +8391,7 @@
       <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="55">
+      <c r="A148" s="54">
         <v>118</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -8403,7 +8400,7 @@
       <c r="C148" s="17"/>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="55">
+      <c r="A149" s="54">
         <v>119</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -8412,7 +8409,7 @@
       <c r="C149" s="17"/>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="55">
+      <c r="A150" s="54">
         <v>120</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -8421,14 +8418,14 @@
       <c r="C150" s="17"/>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="55"/>
-      <c r="B151" s="159" t="s">
+      <c r="A151" s="54"/>
+      <c r="B151" s="152" t="s">
         <v>322</v>
       </c>
-      <c r="C151" s="160"/>
+      <c r="C151" s="153"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="55">
+      <c r="A152" s="54">
         <v>121</v>
       </c>
       <c r="B152" s="18" t="s">
@@ -8437,7 +8434,7 @@
       <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="55">
+      <c r="A153" s="54">
         <v>122</v>
       </c>
       <c r="B153" s="18" t="s">
@@ -8446,7 +8443,7 @@
       <c r="C153" s="17"/>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="55">
+      <c r="A154" s="54">
         <v>123</v>
       </c>
       <c r="B154" s="22" t="s">
@@ -8455,7 +8452,7 @@
       <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="55">
+      <c r="A155" s="54">
         <v>124</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -8464,7 +8461,7 @@
       <c r="C155" s="17"/>
     </row>
     <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="55">
+      <c r="A156" s="54">
         <v>125</v>
       </c>
       <c r="B156" s="18" t="s">
@@ -8473,7 +8470,7 @@
       <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="55">
+      <c r="A157" s="54">
         <v>126</v>
       </c>
       <c r="B157" s="18" t="s">
@@ -8482,14 +8479,14 @@
       <c r="C157" s="17"/>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="54"/>
-      <c r="B158" s="152" t="s">
+      <c r="A158" s="53"/>
+      <c r="B158" s="155" t="s">
         <v>329</v>
       </c>
-      <c r="C158" s="153"/>
+      <c r="C158" s="156"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="55">
+      <c r="A159" s="54">
         <v>127</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -8498,7 +8495,7 @@
       <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="55">
+      <c r="A160" s="54">
         <v>128</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -8507,7 +8504,7 @@
       <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="55">
+      <c r="A161" s="54">
         <v>129</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -8516,14 +8513,14 @@
       <c r="C161" s="17"/>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="54"/>
-      <c r="B162" s="152" t="s">
+      <c r="A162" s="53"/>
+      <c r="B162" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="C162" s="153"/>
+      <c r="C162" s="156"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="55">
+      <c r="A163" s="54">
         <v>130</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -8532,7 +8529,7 @@
       <c r="C163" s="19"/>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="55">
+      <c r="A164" s="54">
         <v>131</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -8541,7 +8538,7 @@
       <c r="C164" s="19"/>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="55">
+      <c r="A165" s="54">
         <v>132</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -8550,14 +8547,14 @@
       <c r="C165" s="19"/>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="54"/>
-      <c r="B166" s="152" t="s">
+      <c r="A166" s="53"/>
+      <c r="B166" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="C166" s="153"/>
+      <c r="C166" s="156"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="55">
+      <c r="A167" s="54">
         <v>133</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -8566,7 +8563,7 @@
       <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="55">
+      <c r="A168" s="54">
         <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -8575,7 +8572,7 @@
       <c r="C168" s="17"/>
     </row>
     <row r="169" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="55">
+      <c r="A169" s="54">
         <v>135</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -8584,7 +8581,7 @@
       <c r="C169" s="17"/>
     </row>
     <row r="170" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="55">
+      <c r="A170" s="54">
         <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -8593,7 +8590,7 @@
       <c r="C170" s="17"/>
     </row>
     <row r="171" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A171" s="55">
+      <c r="A171" s="54">
         <v>137</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -8602,7 +8599,7 @@
       <c r="C171" s="17"/>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="55">
+      <c r="A172" s="54">
         <v>138</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -8611,7 +8608,7 @@
       <c r="C172" s="17"/>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="55">
+      <c r="A173" s="54">
         <v>139</v>
       </c>
       <c r="B173" s="23" t="s">
@@ -8620,7 +8617,7 @@
       <c r="C173" s="17"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="55">
+      <c r="A174" s="54">
         <v>140</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -8629,7 +8626,7 @@
       <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="55">
+      <c r="A175" s="54">
         <v>141</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -8638,7 +8635,7 @@
       <c r="C175" s="17"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="55">
+      <c r="A176" s="54">
         <v>142</v>
       </c>
       <c r="B176" s="24" t="s">
@@ -8647,7 +8644,7 @@
       <c r="C176" s="17"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="55">
+      <c r="A177" s="54">
         <v>143</v>
       </c>
       <c r="B177" s="24" t="s">
@@ -8656,7 +8653,7 @@
       <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A178" s="55">
+      <c r="A178" s="54">
         <v>144</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -8665,7 +8662,7 @@
       <c r="C178" s="17"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="55">
+      <c r="A179" s="54">
         <v>145</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -8674,14 +8671,14 @@
       <c r="C179" s="17"/>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="55"/>
-      <c r="B180" s="154" t="s">
+      <c r="A180" s="54"/>
+      <c r="B180" s="150" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="155"/>
+      <c r="C180" s="151"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A181" s="55">
+      <c r="A181" s="54">
         <v>146</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -8690,7 +8687,7 @@
       <c r="C181" s="16"/>
     </row>
     <row r="182" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="55">
+      <c r="A182" s="54">
         <v>147</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -8699,7 +8696,7 @@
       <c r="C182" s="16"/>
     </row>
     <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="55">
+      <c r="A183" s="54">
         <v>148</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -8708,7 +8705,7 @@
       <c r="C183" s="16"/>
     </row>
     <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="55">
+      <c r="A184" s="54">
         <v>149</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -8717,7 +8714,7 @@
       <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="55">
+      <c r="A185" s="54">
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -8726,7 +8723,7 @@
       <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="55">
+      <c r="A186" s="54">
         <v>151</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -8735,7 +8732,7 @@
       <c r="C186" s="16"/>
     </row>
     <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="55">
+      <c r="A187" s="54">
         <v>152</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -8744,7 +8741,7 @@
       <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="55">
+      <c r="A188" s="54">
         <v>153</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -8753,7 +8750,7 @@
       <c r="C188" s="16"/>
     </row>
     <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="55">
+      <c r="A189" s="54">
         <v>154</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -8762,7 +8759,7 @@
       <c r="C189" s="16"/>
     </row>
     <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="55">
+      <c r="A190" s="54">
         <v>155</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -8771,14 +8768,14 @@
       <c r="C190" s="16"/>
     </row>
     <row r="191" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="56"/>
-      <c r="B191" s="156" t="s">
+      <c r="A191" s="55"/>
+      <c r="B191" s="158" t="s">
         <v>362</v>
       </c>
-      <c r="C191" s="157"/>
+      <c r="C191" s="159"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="55">
+      <c r="A192" s="54">
         <v>159</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -8787,7 +8784,7 @@
       <c r="C192" s="17"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="55">
+      <c r="A193" s="54">
         <v>160</v>
       </c>
       <c r="B193" s="52" t="s">
@@ -8796,25 +8793,40 @@
       <c r="C193" s="17"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="55">
+      <c r="A194" s="54">
         <v>161</v>
       </c>
       <c r="B194" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="C194" s="72"/>
+      <c r="C194" s="70"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="70">
+      <c r="A195" s="68">
         <v>162</v>
       </c>
-      <c r="B195" s="71" t="s">
+      <c r="B195" s="69" t="s">
         <v>364</v>
       </c>
-      <c r="C195" s="73"/>
+      <c r="C195" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B100:C100"/>
     <mergeCell ref="B144:C144"/>
     <mergeCell ref="B151:C151"/>
     <mergeCell ref="B61:C61"/>
@@ -8831,21 +8843,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B191:C191"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
+++ b/thermax_backend/templates/enviro_ipg_design_basis_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javed Sutar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C42D6-9B31-44BC-B726-475356AEED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A357E-E776-40F9-B1DF-7B353AA06E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -1985,6 +1985,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2021,56 +2072,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2078,21 +2126,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2102,87 +2183,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,16 +2216,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2233,18 +2245,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2740,701 +2740,701 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="28" customWidth="1"/>
     <col min="4" max="4" width="53" style="28" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="28" customWidth="1"/>
-    <col min="9" max="31" width="9.140625" style="28" bestFit="1"/>
+    <col min="5" max="6" width="13.1796875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" style="28" customWidth="1"/>
+    <col min="9" max="31" width="9.1796875" style="28" bestFit="1"/>
     <col min="32" max="82" width="9" style="28" hidden="1" customWidth="1"/>
-    <col min="83" max="256" width="9.140625" style="28"/>
+    <col min="83" max="256" width="9.1796875" style="28"/>
     <col min="257" max="257" width="4" style="28" customWidth="1"/>
-    <col min="258" max="258" width="14.42578125" style="28" customWidth="1"/>
-    <col min="259" max="259" width="15.140625" style="28" customWidth="1"/>
+    <col min="258" max="258" width="14.453125" style="28" customWidth="1"/>
+    <col min="259" max="259" width="15.1796875" style="28" customWidth="1"/>
     <col min="260" max="260" width="53" style="28" customWidth="1"/>
-    <col min="261" max="262" width="13.140625" style="28" customWidth="1"/>
-    <col min="263" max="263" width="11.140625" style="28" customWidth="1"/>
-    <col min="264" max="264" width="4.28515625" style="28" customWidth="1"/>
-    <col min="265" max="287" width="9.140625" style="28" bestFit="1"/>
+    <col min="261" max="262" width="13.1796875" style="28" customWidth="1"/>
+    <col min="263" max="263" width="11.1796875" style="28" customWidth="1"/>
+    <col min="264" max="264" width="4.26953125" style="28" customWidth="1"/>
+    <col min="265" max="287" width="9.1796875" style="28" bestFit="1"/>
     <col min="288" max="338" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="339" max="512" width="9.140625" style="28"/>
+    <col min="339" max="512" width="9.1796875" style="28"/>
     <col min="513" max="513" width="4" style="28" customWidth="1"/>
-    <col min="514" max="514" width="14.42578125" style="28" customWidth="1"/>
-    <col min="515" max="515" width="15.140625" style="28" customWidth="1"/>
+    <col min="514" max="514" width="14.453125" style="28" customWidth="1"/>
+    <col min="515" max="515" width="15.1796875" style="28" customWidth="1"/>
     <col min="516" max="516" width="53" style="28" customWidth="1"/>
-    <col min="517" max="518" width="13.140625" style="28" customWidth="1"/>
-    <col min="519" max="519" width="11.140625" style="28" customWidth="1"/>
-    <col min="520" max="520" width="4.28515625" style="28" customWidth="1"/>
-    <col min="521" max="543" width="9.140625" style="28" bestFit="1"/>
+    <col min="517" max="518" width="13.1796875" style="28" customWidth="1"/>
+    <col min="519" max="519" width="11.1796875" style="28" customWidth="1"/>
+    <col min="520" max="520" width="4.26953125" style="28" customWidth="1"/>
+    <col min="521" max="543" width="9.1796875" style="28" bestFit="1"/>
     <col min="544" max="594" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="595" max="768" width="9.140625" style="28"/>
+    <col min="595" max="768" width="9.1796875" style="28"/>
     <col min="769" max="769" width="4" style="28" customWidth="1"/>
-    <col min="770" max="770" width="14.42578125" style="28" customWidth="1"/>
-    <col min="771" max="771" width="15.140625" style="28" customWidth="1"/>
+    <col min="770" max="770" width="14.453125" style="28" customWidth="1"/>
+    <col min="771" max="771" width="15.1796875" style="28" customWidth="1"/>
     <col min="772" max="772" width="53" style="28" customWidth="1"/>
-    <col min="773" max="774" width="13.140625" style="28" customWidth="1"/>
-    <col min="775" max="775" width="11.140625" style="28" customWidth="1"/>
-    <col min="776" max="776" width="4.28515625" style="28" customWidth="1"/>
-    <col min="777" max="799" width="9.140625" style="28" bestFit="1"/>
+    <col min="773" max="774" width="13.1796875" style="28" customWidth="1"/>
+    <col min="775" max="775" width="11.1796875" style="28" customWidth="1"/>
+    <col min="776" max="776" width="4.26953125" style="28" customWidth="1"/>
+    <col min="777" max="799" width="9.1796875" style="28" bestFit="1"/>
     <col min="800" max="850" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="851" max="1024" width="9.140625" style="28"/>
+    <col min="851" max="1024" width="9.1796875" style="28"/>
     <col min="1025" max="1025" width="4" style="28" customWidth="1"/>
-    <col min="1026" max="1026" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1027" max="1027" width="15.140625" style="28" customWidth="1"/>
+    <col min="1026" max="1026" width="14.453125" style="28" customWidth="1"/>
+    <col min="1027" max="1027" width="15.1796875" style="28" customWidth="1"/>
     <col min="1028" max="1028" width="53" style="28" customWidth="1"/>
-    <col min="1029" max="1030" width="13.140625" style="28" customWidth="1"/>
-    <col min="1031" max="1031" width="11.140625" style="28" customWidth="1"/>
-    <col min="1032" max="1032" width="4.28515625" style="28" customWidth="1"/>
-    <col min="1033" max="1055" width="9.140625" style="28" bestFit="1"/>
+    <col min="1029" max="1030" width="13.1796875" style="28" customWidth="1"/>
+    <col min="1031" max="1031" width="11.1796875" style="28" customWidth="1"/>
+    <col min="1032" max="1032" width="4.26953125" style="28" customWidth="1"/>
+    <col min="1033" max="1055" width="9.1796875" style="28" bestFit="1"/>
     <col min="1056" max="1106" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="1107" max="1280" width="9.140625" style="28"/>
+    <col min="1107" max="1280" width="9.1796875" style="28"/>
     <col min="1281" max="1281" width="4" style="28" customWidth="1"/>
-    <col min="1282" max="1282" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1283" max="1283" width="15.140625" style="28" customWidth="1"/>
+    <col min="1282" max="1282" width="14.453125" style="28" customWidth="1"/>
+    <col min="1283" max="1283" width="15.1796875" style="28" customWidth="1"/>
     <col min="1284" max="1284" width="53" style="28" customWidth="1"/>
-    <col min="1285" max="1286" width="13.140625" style="28" customWidth="1"/>
-    <col min="1287" max="1287" width="11.140625" style="28" customWidth="1"/>
-    <col min="1288" max="1288" width="4.28515625" style="28" customWidth="1"/>
-    <col min="1289" max="1311" width="9.140625" style="28" bestFit="1"/>
+    <col min="1285" max="1286" width="13.1796875" style="28" customWidth="1"/>
+    <col min="1287" max="1287" width="11.1796875" style="28" customWidth="1"/>
+    <col min="1288" max="1288" width="4.26953125" style="28" customWidth="1"/>
+    <col min="1289" max="1311" width="9.1796875" style="28" bestFit="1"/>
     <col min="1312" max="1362" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="1363" max="1536" width="9.140625" style="28"/>
+    <col min="1363" max="1536" width="9.1796875" style="28"/>
     <col min="1537" max="1537" width="4" style="28" customWidth="1"/>
-    <col min="1538" max="1538" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1539" max="1539" width="15.140625" style="28" customWidth="1"/>
+    <col min="1538" max="1538" width="14.453125" style="28" customWidth="1"/>
+    <col min="1539" max="1539" width="15.1796875" style="28" customWidth="1"/>
     <col min="1540" max="1540" width="53" style="28" customWidth="1"/>
-    <col min="1541" max="1542" width="13.140625" style="28" customWidth="1"/>
-    <col min="1543" max="1543" width="11.140625" style="28" customWidth="1"/>
-    <col min="1544" max="1544" width="4.28515625" style="28" customWidth="1"/>
-    <col min="1545" max="1567" width="9.140625" style="28" bestFit="1"/>
+    <col min="1541" max="1542" width="13.1796875" style="28" customWidth="1"/>
+    <col min="1543" max="1543" width="11.1796875" style="28" customWidth="1"/>
+    <col min="1544" max="1544" width="4.26953125" style="28" customWidth="1"/>
+    <col min="1545" max="1567" width="9.1796875" style="28" bestFit="1"/>
     <col min="1568" max="1618" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="1619" max="1792" width="9.140625" style="28"/>
+    <col min="1619" max="1792" width="9.1796875" style="28"/>
     <col min="1793" max="1793" width="4" style="28" customWidth="1"/>
-    <col min="1794" max="1794" width="14.42578125" style="28" customWidth="1"/>
-    <col min="1795" max="1795" width="15.140625" style="28" customWidth="1"/>
+    <col min="1794" max="1794" width="14.453125" style="28" customWidth="1"/>
+    <col min="1795" max="1795" width="15.1796875" style="28" customWidth="1"/>
     <col min="1796" max="1796" width="53" style="28" customWidth="1"/>
-    <col min="1797" max="1798" width="13.140625" style="28" customWidth="1"/>
-    <col min="1799" max="1799" width="11.140625" style="28" customWidth="1"/>
-    <col min="1800" max="1800" width="4.28515625" style="28" customWidth="1"/>
-    <col min="1801" max="1823" width="9.140625" style="28" bestFit="1"/>
+    <col min="1797" max="1798" width="13.1796875" style="28" customWidth="1"/>
+    <col min="1799" max="1799" width="11.1796875" style="28" customWidth="1"/>
+    <col min="1800" max="1800" width="4.26953125" style="28" customWidth="1"/>
+    <col min="1801" max="1823" width="9.1796875" style="28" bestFit="1"/>
     <col min="1824" max="1874" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="1875" max="2048" width="9.140625" style="28"/>
+    <col min="1875" max="2048" width="9.1796875" style="28"/>
     <col min="2049" max="2049" width="4" style="28" customWidth="1"/>
-    <col min="2050" max="2050" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2051" max="2051" width="15.140625" style="28" customWidth="1"/>
+    <col min="2050" max="2050" width="14.453125" style="28" customWidth="1"/>
+    <col min="2051" max="2051" width="15.1796875" style="28" customWidth="1"/>
     <col min="2052" max="2052" width="53" style="28" customWidth="1"/>
-    <col min="2053" max="2054" width="13.140625" style="28" customWidth="1"/>
-    <col min="2055" max="2055" width="11.140625" style="28" customWidth="1"/>
-    <col min="2056" max="2056" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2057" max="2079" width="9.140625" style="28" bestFit="1"/>
+    <col min="2053" max="2054" width="13.1796875" style="28" customWidth="1"/>
+    <col min="2055" max="2055" width="11.1796875" style="28" customWidth="1"/>
+    <col min="2056" max="2056" width="4.26953125" style="28" customWidth="1"/>
+    <col min="2057" max="2079" width="9.1796875" style="28" bestFit="1"/>
     <col min="2080" max="2130" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="2131" max="2304" width="9.140625" style="28"/>
+    <col min="2131" max="2304" width="9.1796875" style="28"/>
     <col min="2305" max="2305" width="4" style="28" customWidth="1"/>
-    <col min="2306" max="2306" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2307" max="2307" width="15.140625" style="28" customWidth="1"/>
+    <col min="2306" max="2306" width="14.453125" style="28" customWidth="1"/>
+    <col min="2307" max="2307" width="15.1796875" style="28" customWidth="1"/>
     <col min="2308" max="2308" width="53" style="28" customWidth="1"/>
-    <col min="2309" max="2310" width="13.140625" style="28" customWidth="1"/>
-    <col min="2311" max="2311" width="11.140625" style="28" customWidth="1"/>
-    <col min="2312" max="2312" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2313" max="2335" width="9.140625" style="28" bestFit="1"/>
+    <col min="2309" max="2310" width="13.1796875" style="28" customWidth="1"/>
+    <col min="2311" max="2311" width="11.1796875" style="28" customWidth="1"/>
+    <col min="2312" max="2312" width="4.26953125" style="28" customWidth="1"/>
+    <col min="2313" max="2335" width="9.1796875" style="28" bestFit="1"/>
     <col min="2336" max="2386" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="2387" max="2560" width="9.140625" style="28"/>
+    <col min="2387" max="2560" width="9.1796875" style="28"/>
     <col min="2561" max="2561" width="4" style="28" customWidth="1"/>
-    <col min="2562" max="2562" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2563" max="2563" width="15.140625" style="28" customWidth="1"/>
+    <col min="2562" max="2562" width="14.453125" style="28" customWidth="1"/>
+    <col min="2563" max="2563" width="15.1796875" style="28" customWidth="1"/>
     <col min="2564" max="2564" width="53" style="28" customWidth="1"/>
-    <col min="2565" max="2566" width="13.140625" style="28" customWidth="1"/>
-    <col min="2567" max="2567" width="11.140625" style="28" customWidth="1"/>
-    <col min="2568" max="2568" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2569" max="2591" width="9.140625" style="28" bestFit="1"/>
+    <col min="2565" max="2566" width="13.1796875" style="28" customWidth="1"/>
+    <col min="2567" max="2567" width="11.1796875" style="28" customWidth="1"/>
+    <col min="2568" max="2568" width="4.26953125" style="28" customWidth="1"/>
+    <col min="2569" max="2591" width="9.1796875" style="28" bestFit="1"/>
     <col min="2592" max="2642" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="2643" max="2816" width="9.140625" style="28"/>
+    <col min="2643" max="2816" width="9.1796875" style="28"/>
     <col min="2817" max="2817" width="4" style="28" customWidth="1"/>
-    <col min="2818" max="2818" width="14.42578125" style="28" customWidth="1"/>
-    <col min="2819" max="2819" width="15.140625" style="28" customWidth="1"/>
+    <col min="2818" max="2818" width="14.453125" style="28" customWidth="1"/>
+    <col min="2819" max="2819" width="15.1796875" style="28" customWidth="1"/>
     <col min="2820" max="2820" width="53" style="28" customWidth="1"/>
-    <col min="2821" max="2822" width="13.140625" style="28" customWidth="1"/>
-    <col min="2823" max="2823" width="11.140625" style="28" customWidth="1"/>
-    <col min="2824" max="2824" width="4.28515625" style="28" customWidth="1"/>
-    <col min="2825" max="2847" width="9.140625" style="28" bestFit="1"/>
+    <col min="2821" max="2822" width="13.1796875" style="28" customWidth="1"/>
+    <col min="2823" max="2823" width="11.1796875" style="28" customWidth="1"/>
+    <col min="2824" max="2824" width="4.26953125" style="28" customWidth="1"/>
+    <col min="2825" max="2847" width="9.1796875" style="28" bestFit="1"/>
     <col min="2848" max="2898" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="2899" max="3072" width="9.140625" style="28"/>
+    <col min="2899" max="3072" width="9.1796875" style="28"/>
     <col min="3073" max="3073" width="4" style="28" customWidth="1"/>
-    <col min="3074" max="3074" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3075" max="3075" width="15.140625" style="28" customWidth="1"/>
+    <col min="3074" max="3074" width="14.453125" style="28" customWidth="1"/>
+    <col min="3075" max="3075" width="15.1796875" style="28" customWidth="1"/>
     <col min="3076" max="3076" width="53" style="28" customWidth="1"/>
-    <col min="3077" max="3078" width="13.140625" style="28" customWidth="1"/>
-    <col min="3079" max="3079" width="11.140625" style="28" customWidth="1"/>
-    <col min="3080" max="3080" width="4.28515625" style="28" customWidth="1"/>
-    <col min="3081" max="3103" width="9.140625" style="28" bestFit="1"/>
+    <col min="3077" max="3078" width="13.1796875" style="28" customWidth="1"/>
+    <col min="3079" max="3079" width="11.1796875" style="28" customWidth="1"/>
+    <col min="3080" max="3080" width="4.26953125" style="28" customWidth="1"/>
+    <col min="3081" max="3103" width="9.1796875" style="28" bestFit="1"/>
     <col min="3104" max="3154" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="3155" max="3328" width="9.140625" style="28"/>
+    <col min="3155" max="3328" width="9.1796875" style="28"/>
     <col min="3329" max="3329" width="4" style="28" customWidth="1"/>
-    <col min="3330" max="3330" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3331" max="3331" width="15.140625" style="28" customWidth="1"/>
+    <col min="3330" max="3330" width="14.453125" style="28" customWidth="1"/>
+    <col min="3331" max="3331" width="15.1796875" style="28" customWidth="1"/>
     <col min="3332" max="3332" width="53" style="28" customWidth="1"/>
-    <col min="3333" max="3334" width="13.140625" style="28" customWidth="1"/>
-    <col min="3335" max="3335" width="11.140625" style="28" customWidth="1"/>
-    <col min="3336" max="3336" width="4.28515625" style="28" customWidth="1"/>
-    <col min="3337" max="3359" width="9.140625" style="28" bestFit="1"/>
+    <col min="3333" max="3334" width="13.1796875" style="28" customWidth="1"/>
+    <col min="3335" max="3335" width="11.1796875" style="28" customWidth="1"/>
+    <col min="3336" max="3336" width="4.26953125" style="28" customWidth="1"/>
+    <col min="3337" max="3359" width="9.1796875" style="28" bestFit="1"/>
     <col min="3360" max="3410" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="3411" max="3584" width="9.140625" style="28"/>
+    <col min="3411" max="3584" width="9.1796875" style="28"/>
     <col min="3585" max="3585" width="4" style="28" customWidth="1"/>
-    <col min="3586" max="3586" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3587" max="3587" width="15.140625" style="28" customWidth="1"/>
+    <col min="3586" max="3586" width="14.453125" style="28" customWidth="1"/>
+    <col min="3587" max="3587" width="15.1796875" style="28" customWidth="1"/>
     <col min="3588" max="3588" width="53" style="28" customWidth="1"/>
-    <col min="3589" max="3590" width="13.140625" style="28" customWidth="1"/>
-    <col min="3591" max="3591" width="11.140625" style="28" customWidth="1"/>
-    <col min="3592" max="3592" width="4.28515625" style="28" customWidth="1"/>
-    <col min="3593" max="3615" width="9.140625" style="28" bestFit="1"/>
+    <col min="3589" max="3590" width="13.1796875" style="28" customWidth="1"/>
+    <col min="3591" max="3591" width="11.1796875" style="28" customWidth="1"/>
+    <col min="3592" max="3592" width="4.26953125" style="28" customWidth="1"/>
+    <col min="3593" max="3615" width="9.1796875" style="28" bestFit="1"/>
     <col min="3616" max="3666" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="3667" max="3840" width="9.140625" style="28"/>
+    <col min="3667" max="3840" width="9.1796875" style="28"/>
     <col min="3841" max="3841" width="4" style="28" customWidth="1"/>
-    <col min="3842" max="3842" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3843" max="3843" width="15.140625" style="28" customWidth="1"/>
+    <col min="3842" max="3842" width="14.453125" style="28" customWidth="1"/>
+    <col min="3843" max="3843" width="15.1796875" style="28" customWidth="1"/>
     <col min="3844" max="3844" width="53" style="28" customWidth="1"/>
-    <col min="3845" max="3846" width="13.140625" style="28" customWidth="1"/>
-    <col min="3847" max="3847" width="11.140625" style="28" customWidth="1"/>
-    <col min="3848" max="3848" width="4.28515625" style="28" customWidth="1"/>
-    <col min="3849" max="3871" width="9.140625" style="28" bestFit="1"/>
+    <col min="3845" max="3846" width="13.1796875" style="28" customWidth="1"/>
+    <col min="3847" max="3847" width="11.1796875" style="28" customWidth="1"/>
+    <col min="3848" max="3848" width="4.26953125" style="28" customWidth="1"/>
+    <col min="3849" max="3871" width="9.1796875" style="28" bestFit="1"/>
     <col min="3872" max="3922" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="3923" max="4096" width="9.140625" style="28"/>
+    <col min="3923" max="4096" width="9.1796875" style="28"/>
     <col min="4097" max="4097" width="4" style="28" customWidth="1"/>
-    <col min="4098" max="4098" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4099" max="4099" width="15.140625" style="28" customWidth="1"/>
+    <col min="4098" max="4098" width="14.453125" style="28" customWidth="1"/>
+    <col min="4099" max="4099" width="15.1796875" style="28" customWidth="1"/>
     <col min="4100" max="4100" width="53" style="28" customWidth="1"/>
-    <col min="4101" max="4102" width="13.140625" style="28" customWidth="1"/>
-    <col min="4103" max="4103" width="11.140625" style="28" customWidth="1"/>
-    <col min="4104" max="4104" width="4.28515625" style="28" customWidth="1"/>
-    <col min="4105" max="4127" width="9.140625" style="28" bestFit="1"/>
+    <col min="4101" max="4102" width="13.1796875" style="28" customWidth="1"/>
+    <col min="4103" max="4103" width="11.1796875" style="28" customWidth="1"/>
+    <col min="4104" max="4104" width="4.26953125" style="28" customWidth="1"/>
+    <col min="4105" max="4127" width="9.1796875" style="28" bestFit="1"/>
     <col min="4128" max="4178" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="4179" max="4352" width="9.140625" style="28"/>
+    <col min="4179" max="4352" width="9.1796875" style="28"/>
     <col min="4353" max="4353" width="4" style="28" customWidth="1"/>
-    <col min="4354" max="4354" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4355" max="4355" width="15.140625" style="28" customWidth="1"/>
+    <col min="4354" max="4354" width="14.453125" style="28" customWidth="1"/>
+    <col min="4355" max="4355" width="15.1796875" style="28" customWidth="1"/>
     <col min="4356" max="4356" width="53" style="28" customWidth="1"/>
-    <col min="4357" max="4358" width="13.140625" style="28" customWidth="1"/>
-    <col min="4359" max="4359" width="11.140625" style="28" customWidth="1"/>
-    <col min="4360" max="4360" width="4.28515625" style="28" customWidth="1"/>
-    <col min="4361" max="4383" width="9.140625" style="28" bestFit="1"/>
+    <col min="4357" max="4358" width="13.1796875" style="28" customWidth="1"/>
+    <col min="4359" max="4359" width="11.1796875" style="28" customWidth="1"/>
+    <col min="4360" max="4360" width="4.26953125" style="28" customWidth="1"/>
+    <col min="4361" max="4383" width="9.1796875" style="28" bestFit="1"/>
     <col min="4384" max="4434" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="4435" max="4608" width="9.140625" style="28"/>
+    <col min="4435" max="4608" width="9.1796875" style="28"/>
     <col min="4609" max="4609" width="4" style="28" customWidth="1"/>
-    <col min="4610" max="4610" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4611" max="4611" width="15.140625" style="28" customWidth="1"/>
+    <col min="4610" max="4610" width="14.453125" style="28" customWidth="1"/>
+    <col min="4611" max="4611" width="15.1796875" style="28" customWidth="1"/>
     <col min="4612" max="4612" width="53" style="28" customWidth="1"/>
-    <col min="4613" max="4614" width="13.140625" style="28" customWidth="1"/>
-    <col min="4615" max="4615" width="11.140625" style="28" customWidth="1"/>
-    <col min="4616" max="4616" width="4.28515625" style="28" customWidth="1"/>
-    <col min="4617" max="4639" width="9.140625" style="28" bestFit="1"/>
+    <col min="4613" max="4614" width="13.1796875" style="28" customWidth="1"/>
+    <col min="4615" max="4615" width="11.1796875" style="28" customWidth="1"/>
+    <col min="4616" max="4616" width="4.26953125" style="28" customWidth="1"/>
+    <col min="4617" max="4639" width="9.1796875" style="28" bestFit="1"/>
     <col min="4640" max="4690" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="4691" max="4864" width="9.140625" style="28"/>
+    <col min="4691" max="4864" width="9.1796875" style="28"/>
     <col min="4865" max="4865" width="4" style="28" customWidth="1"/>
-    <col min="4866" max="4866" width="14.42578125" style="28" customWidth="1"/>
-    <col min="4867" max="4867" width="15.140625" style="28" customWidth="1"/>
+    <col min="4866" max="4866" width="14.453125" style="28" customWidth="1"/>
+    <col min="4867" max="4867" width="15.1796875" style="28" customWidth="1"/>
     <col min="4868" max="4868" width="53" style="28" customWidth="1"/>
-    <col min="4869" max="4870" width="13.140625" style="28" customWidth="1"/>
-    <col min="4871" max="4871" width="11.140625" style="28" customWidth="1"/>
-    <col min="4872" max="4872" width="4.28515625" style="28" customWidth="1"/>
-    <col min="4873" max="4895" width="9.140625" style="28" bestFit="1"/>
+    <col min="4869" max="4870" width="13.1796875" style="28" customWidth="1"/>
+    <col min="4871" max="4871" width="11.1796875" style="28" customWidth="1"/>
+    <col min="4872" max="4872" width="4.26953125" style="28" customWidth="1"/>
+    <col min="4873" max="4895" width="9.1796875" style="28" bestFit="1"/>
     <col min="4896" max="4946" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="4947" max="5120" width="9.140625" style="28"/>
+    <col min="4947" max="5120" width="9.1796875" style="28"/>
     <col min="5121" max="5121" width="4" style="28" customWidth="1"/>
-    <col min="5122" max="5122" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5123" max="5123" width="15.140625" style="28" customWidth="1"/>
+    <col min="5122" max="5122" width="14.453125" style="28" customWidth="1"/>
+    <col min="5123" max="5123" width="15.1796875" style="28" customWidth="1"/>
     <col min="5124" max="5124" width="53" style="28" customWidth="1"/>
-    <col min="5125" max="5126" width="13.140625" style="28" customWidth="1"/>
-    <col min="5127" max="5127" width="11.140625" style="28" customWidth="1"/>
-    <col min="5128" max="5128" width="4.28515625" style="28" customWidth="1"/>
-    <col min="5129" max="5151" width="9.140625" style="28" bestFit="1"/>
+    <col min="5125" max="5126" width="13.1796875" style="28" customWidth="1"/>
+    <col min="5127" max="5127" width="11.1796875" style="28" customWidth="1"/>
+    <col min="5128" max="5128" width="4.26953125" style="28" customWidth="1"/>
+    <col min="5129" max="5151" width="9.1796875" style="28" bestFit="1"/>
     <col min="5152" max="5202" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="5203" max="5376" width="9.140625" style="28"/>
+    <col min="5203" max="5376" width="9.1796875" style="28"/>
     <col min="5377" max="5377" width="4" style="28" customWidth="1"/>
-    <col min="5378" max="5378" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5379" max="5379" width="15.140625" style="28" customWidth="1"/>
+    <col min="5378" max="5378" width="14.453125" style="28" customWidth="1"/>
+    <col min="5379" max="5379" width="15.1796875" style="28" customWidth="1"/>
     <col min="5380" max="5380" width="53" style="28" customWidth="1"/>
-    <col min="5381" max="5382" width="13.140625" style="28" customWidth="1"/>
-    <col min="5383" max="5383" width="11.140625" style="28" customWidth="1"/>
-    <col min="5384" max="5384" width="4.28515625" style="28" customWidth="1"/>
-    <col min="5385" max="5407" width="9.140625" style="28" bestFit="1"/>
+    <col min="5381" max="5382" width="13.1796875" style="28" customWidth="1"/>
+    <col min="5383" max="5383" width="11.1796875" style="28" customWidth="1"/>
+    <col min="5384" max="5384" width="4.26953125" style="28" customWidth="1"/>
+    <col min="5385" max="5407" width="9.1796875" style="28" bestFit="1"/>
     <col min="5408" max="5458" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="5459" max="5632" width="9.140625" style="28"/>
+    <col min="5459" max="5632" width="9.1796875" style="28"/>
     <col min="5633" max="5633" width="4" style="28" customWidth="1"/>
-    <col min="5634" max="5634" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5635" max="5635" width="15.140625" style="28" customWidth="1"/>
+    <col min="5634" max="5634" width="14.453125" style="28" customWidth="1"/>
+    <col min="5635" max="5635" width="15.1796875" style="28" customWidth="1"/>
     <col min="5636" max="5636" width="53" style="28" customWidth="1"/>
-    <col min="5637" max="5638" width="13.140625" style="28" customWidth="1"/>
-    <col min="5639" max="5639" width="11.140625" style="28" customWidth="1"/>
-    <col min="5640" max="5640" width="4.28515625" style="28" customWidth="1"/>
-    <col min="5641" max="5663" width="9.140625" style="28" bestFit="1"/>
+    <col min="5637" max="5638" width="13.1796875" style="28" customWidth="1"/>
+    <col min="5639" max="5639" width="11.1796875" style="28" customWidth="1"/>
+    <col min="5640" max="5640" width="4.26953125" style="28" customWidth="1"/>
+    <col min="5641" max="5663" width="9.1796875" style="28" bestFit="1"/>
     <col min="5664" max="5714" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="5715" max="5888" width="9.140625" style="28"/>
+    <col min="5715" max="5888" width="9.1796875" style="28"/>
     <col min="5889" max="5889" width="4" style="28" customWidth="1"/>
-    <col min="5890" max="5890" width="14.42578125" style="28" customWidth="1"/>
-    <col min="5891" max="5891" width="15.140625" style="28" customWidth="1"/>
+    <col min="5890" max="5890" width="14.453125" style="28" customWidth="1"/>
+    <col min="5891" max="5891" width="15.1796875" style="28" customWidth="1"/>
     <col min="5892" max="5892" width="53" style="28" customWidth="1"/>
-    <col min="5893" max="5894" width="13.140625" style="28" customWidth="1"/>
-    <col min="5895" max="5895" width="11.140625" style="28" customWidth="1"/>
-    <col min="5896" max="5896" width="4.28515625" style="28" customWidth="1"/>
-    <col min="5897" max="5919" width="9.140625" style="28" bestFit="1"/>
+    <col min="5893" max="5894" width="13.1796875" style="28" customWidth="1"/>
+    <col min="5895" max="5895" width="11.1796875" style="28" customWidth="1"/>
+    <col min="5896" max="5896" width="4.26953125" style="28" customWidth="1"/>
+    <col min="5897" max="5919" width="9.1796875" style="28" bestFit="1"/>
     <col min="5920" max="5970" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="5971" max="6144" width="9.140625" style="28"/>
+    <col min="5971" max="6144" width="9.1796875" style="28"/>
     <col min="6145" max="6145" width="4" style="28" customWidth="1"/>
-    <col min="6146" max="6146" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6147" max="6147" width="15.140625" style="28" customWidth="1"/>
+    <col min="6146" max="6146" width="14.453125" style="28" customWidth="1"/>
+    <col min="6147" max="6147" width="15.1796875" style="28" customWidth="1"/>
     <col min="6148" max="6148" width="53" style="28" customWidth="1"/>
-    <col min="6149" max="6150" width="13.140625" style="28" customWidth="1"/>
-    <col min="6151" max="6151" width="11.140625" style="28" customWidth="1"/>
-    <col min="6152" max="6152" width="4.28515625" style="28" customWidth="1"/>
-    <col min="6153" max="6175" width="9.140625" style="28" bestFit="1"/>
+    <col min="6149" max="6150" width="13.1796875" style="28" customWidth="1"/>
+    <col min="6151" max="6151" width="11.1796875" style="28" customWidth="1"/>
+    <col min="6152" max="6152" width="4.26953125" style="28" customWidth="1"/>
+    <col min="6153" max="6175" width="9.1796875" style="28" bestFit="1"/>
     <col min="6176" max="6226" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="6227" max="6400" width="9.140625" style="28"/>
+    <col min="6227" max="6400" width="9.1796875" style="28"/>
     <col min="6401" max="6401" width="4" style="28" customWidth="1"/>
-    <col min="6402" max="6402" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6403" max="6403" width="15.140625" style="28" customWidth="1"/>
+    <col min="6402" max="6402" width="14.453125" style="28" customWidth="1"/>
+    <col min="6403" max="6403" width="15.1796875" style="28" customWidth="1"/>
     <col min="6404" max="6404" width="53" style="28" customWidth="1"/>
-    <col min="6405" max="6406" width="13.140625" style="28" customWidth="1"/>
-    <col min="6407" max="6407" width="11.140625" style="28" customWidth="1"/>
-    <col min="6408" max="6408" width="4.28515625" style="28" customWidth="1"/>
-    <col min="6409" max="6431" width="9.140625" style="28" bestFit="1"/>
+    <col min="6405" max="6406" width="13.1796875" style="28" customWidth="1"/>
+    <col min="6407" max="6407" width="11.1796875" style="28" customWidth="1"/>
+    <col min="6408" max="6408" width="4.26953125" style="28" customWidth="1"/>
+    <col min="6409" max="6431" width="9.1796875" style="28" bestFit="1"/>
     <col min="6432" max="6482" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="6483" max="6656" width="9.140625" style="28"/>
+    <col min="6483" max="6656" width="9.1796875" style="28"/>
     <col min="6657" max="6657" width="4" style="28" customWidth="1"/>
-    <col min="6658" max="6658" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6659" max="6659" width="15.140625" style="28" customWidth="1"/>
+    <col min="6658" max="6658" width="14.453125" style="28" customWidth="1"/>
+    <col min="6659" max="6659" width="15.1796875" style="28" customWidth="1"/>
     <col min="6660" max="6660" width="53" style="28" customWidth="1"/>
-    <col min="6661" max="6662" width="13.140625" style="28" customWidth="1"/>
-    <col min="6663" max="6663" width="11.140625" style="28" customWidth="1"/>
-    <col min="6664" max="6664" width="4.28515625" style="28" customWidth="1"/>
-    <col min="6665" max="6687" width="9.140625" style="28" bestFit="1"/>
+    <col min="6661" max="6662" width="13.1796875" style="28" customWidth="1"/>
+    <col min="6663" max="6663" width="11.1796875" style="28" customWidth="1"/>
+    <col min="6664" max="6664" width="4.26953125" style="28" customWidth="1"/>
+    <col min="6665" max="6687" width="9.1796875" style="28" bestFit="1"/>
     <col min="6688" max="6738" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="6739" max="6912" width="9.140625" style="28"/>
+    <col min="6739" max="6912" width="9.1796875" style="28"/>
     <col min="6913" max="6913" width="4" style="28" customWidth="1"/>
-    <col min="6914" max="6914" width="14.42578125" style="28" customWidth="1"/>
-    <col min="6915" max="6915" width="15.140625" style="28" customWidth="1"/>
+    <col min="6914" max="6914" width="14.453125" style="28" customWidth="1"/>
+    <col min="6915" max="6915" width="15.1796875" style="28" customWidth="1"/>
     <col min="6916" max="6916" width="53" style="28" customWidth="1"/>
-    <col min="6917" max="6918" width="13.140625" style="28" customWidth="1"/>
-    <col min="6919" max="6919" width="11.140625" style="28" customWidth="1"/>
-    <col min="6920" max="6920" width="4.28515625" style="28" customWidth="1"/>
-    <col min="6921" max="6943" width="9.140625" style="28" bestFit="1"/>
+    <col min="6917" max="6918" width="13.1796875" style="28" customWidth="1"/>
+    <col min="6919" max="6919" width="11.1796875" style="28" customWidth="1"/>
+    <col min="6920" max="6920" width="4.26953125" style="28" customWidth="1"/>
+    <col min="6921" max="6943" width="9.1796875" style="28" bestFit="1"/>
     <col min="6944" max="6994" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="6995" max="7168" width="9.140625" style="28"/>
+    <col min="6995" max="7168" width="9.1796875" style="28"/>
     <col min="7169" max="7169" width="4" style="28" customWidth="1"/>
-    <col min="7170" max="7170" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7171" max="7171" width="15.140625" style="28" customWidth="1"/>
+    <col min="7170" max="7170" width="14.453125" style="28" customWidth="1"/>
+    <col min="7171" max="7171" width="15.1796875" style="28" customWidth="1"/>
     <col min="7172" max="7172" width="53" style="28" customWidth="1"/>
-    <col min="7173" max="7174" width="13.140625" style="28" customWidth="1"/>
-    <col min="7175" max="7175" width="11.140625" style="28" customWidth="1"/>
-    <col min="7176" max="7176" width="4.28515625" style="28" customWidth="1"/>
-    <col min="7177" max="7199" width="9.140625" style="28" bestFit="1"/>
+    <col min="7173" max="7174" width="13.1796875" style="28" customWidth="1"/>
+    <col min="7175" max="7175" width="11.1796875" style="28" customWidth="1"/>
+    <col min="7176" max="7176" width="4.26953125" style="28" customWidth="1"/>
+    <col min="7177" max="7199" width="9.1796875" style="28" bestFit="1"/>
     <col min="7200" max="7250" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="7251" max="7424" width="9.140625" style="28"/>
+    <col min="7251" max="7424" width="9.1796875" style="28"/>
     <col min="7425" max="7425" width="4" style="28" customWidth="1"/>
-    <col min="7426" max="7426" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7427" max="7427" width="15.140625" style="28" customWidth="1"/>
+    <col min="7426" max="7426" width="14.453125" style="28" customWidth="1"/>
+    <col min="7427" max="7427" width="15.1796875" style="28" customWidth="1"/>
     <col min="7428" max="7428" width="53" style="28" customWidth="1"/>
-    <col min="7429" max="7430" width="13.140625" style="28" customWidth="1"/>
-    <col min="7431" max="7431" width="11.140625" style="28" customWidth="1"/>
-    <col min="7432" max="7432" width="4.28515625" style="28" customWidth="1"/>
-    <col min="7433" max="7455" width="9.140625" style="28" bestFit="1"/>
+    <col min="7429" max="7430" width="13.1796875" style="28" customWidth="1"/>
+    <col min="7431" max="7431" width="11.1796875" style="28" customWidth="1"/>
+    <col min="7432" max="7432" width="4.26953125" style="28" customWidth="1"/>
+    <col min="7433" max="7455" width="9.1796875" style="28" bestFit="1"/>
     <col min="7456" max="7506" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="7507" max="7680" width="9.140625" style="28"/>
+    <col min="7507" max="7680" width="9.1796875" style="28"/>
     <col min="7681" max="7681" width="4" style="28" customWidth="1"/>
-    <col min="7682" max="7682" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7683" max="7683" width="15.140625" style="28" customWidth="1"/>
+    <col min="7682" max="7682" width="14.453125" style="28" customWidth="1"/>
+    <col min="7683" max="7683" width="15.1796875" style="28" customWidth="1"/>
     <col min="7684" max="7684" width="53" style="28" customWidth="1"/>
-    <col min="7685" max="7686" width="13.140625" style="28" customWidth="1"/>
-    <col min="7687" max="7687" width="11.140625" style="28" customWidth="1"/>
-    <col min="7688" max="7688" width="4.28515625" style="28" customWidth="1"/>
-    <col min="7689" max="7711" width="9.140625" style="28" bestFit="1"/>
+    <col min="7685" max="7686" width="13.1796875" style="28" customWidth="1"/>
+    <col min="7687" max="7687" width="11.1796875" style="28" customWidth="1"/>
+    <col min="7688" max="7688" width="4.26953125" style="28" customWidth="1"/>
+    <col min="7689" max="7711" width="9.1796875" style="28" bestFit="1"/>
     <col min="7712" max="7762" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="7763" max="7936" width="9.140625" style="28"/>
+    <col min="7763" max="7936" width="9.1796875" style="28"/>
     <col min="7937" max="7937" width="4" style="28" customWidth="1"/>
-    <col min="7938" max="7938" width="14.42578125" style="28" customWidth="1"/>
-    <col min="7939" max="7939" width="15.140625" style="28" customWidth="1"/>
+    <col min="7938" max="7938" width="14.453125" style="28" customWidth="1"/>
+    <col min="7939" max="7939" width="15.1796875" style="28" customWidth="1"/>
     <col min="7940" max="7940" width="53" style="28" customWidth="1"/>
-    <col min="7941" max="7942" width="13.140625" style="28" customWidth="1"/>
-    <col min="7943" max="7943" width="11.140625" style="28" customWidth="1"/>
-    <col min="7944" max="7944" width="4.28515625" style="28" customWidth="1"/>
-    <col min="7945" max="7967" width="9.140625" style="28" bestFit="1"/>
+    <col min="7941" max="7942" width="13.1796875" style="28" customWidth="1"/>
+    <col min="7943" max="7943" width="11.1796875" style="28" customWidth="1"/>
+    <col min="7944" max="7944" width="4.26953125" style="28" customWidth="1"/>
+    <col min="7945" max="7967" width="9.1796875" style="28" bestFit="1"/>
     <col min="7968" max="8018" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="8019" max="8192" width="9.140625" style="28"/>
+    <col min="8019" max="8192" width="9.1796875" style="28"/>
     <col min="8193" max="8193" width="4" style="28" customWidth="1"/>
-    <col min="8194" max="8194" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8195" max="8195" width="15.140625" style="28" customWidth="1"/>
+    <col min="8194" max="8194" width="14.453125" style="28" customWidth="1"/>
+    <col min="8195" max="8195" width="15.1796875" style="28" customWidth="1"/>
     <col min="8196" max="8196" width="53" style="28" customWidth="1"/>
-    <col min="8197" max="8198" width="13.140625" style="28" customWidth="1"/>
-    <col min="8199" max="8199" width="11.140625" style="28" customWidth="1"/>
-    <col min="8200" max="8200" width="4.28515625" style="28" customWidth="1"/>
-    <col min="8201" max="8223" width="9.140625" style="28" bestFit="1"/>
+    <col min="8197" max="8198" width="13.1796875" style="28" customWidth="1"/>
+    <col min="8199" max="8199" width="11.1796875" style="28" customWidth="1"/>
+    <col min="8200" max="8200" width="4.26953125" style="28" customWidth="1"/>
+    <col min="8201" max="8223" width="9.1796875" style="28" bestFit="1"/>
     <col min="8224" max="8274" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="8275" max="8448" width="9.140625" style="28"/>
+    <col min="8275" max="8448" width="9.1796875" style="28"/>
     <col min="8449" max="8449" width="4" style="28" customWidth="1"/>
-    <col min="8450" max="8450" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8451" max="8451" width="15.140625" style="28" customWidth="1"/>
+    <col min="8450" max="8450" width="14.453125" style="28" customWidth="1"/>
+    <col min="8451" max="8451" width="15.1796875" style="28" customWidth="1"/>
     <col min="8452" max="8452" width="53" style="28" customWidth="1"/>
-    <col min="8453" max="8454" width="13.140625" style="28" customWidth="1"/>
-    <col min="8455" max="8455" width="11.140625" style="28" customWidth="1"/>
-    <col min="8456" max="8456" width="4.28515625" style="28" customWidth="1"/>
-    <col min="8457" max="8479" width="9.140625" style="28" bestFit="1"/>
+    <col min="8453" max="8454" width="13.1796875" style="28" customWidth="1"/>
+    <col min="8455" max="8455" width="11.1796875" style="28" customWidth="1"/>
+    <col min="8456" max="8456" width="4.26953125" style="28" customWidth="1"/>
+    <col min="8457" max="8479" width="9.1796875" style="28" bestFit="1"/>
     <col min="8480" max="8530" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="8531" max="8704" width="9.140625" style="28"/>
+    <col min="8531" max="8704" width="9.1796875" style="28"/>
     <col min="8705" max="8705" width="4" style="28" customWidth="1"/>
-    <col min="8706" max="8706" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8707" max="8707" width="15.140625" style="28" customWidth="1"/>
+    <col min="8706" max="8706" width="14.453125" style="28" customWidth="1"/>
+    <col min="8707" max="8707" width="15.1796875" style="28" customWidth="1"/>
     <col min="8708" max="8708" width="53" style="28" customWidth="1"/>
-    <col min="8709" max="8710" width="13.140625" style="28" customWidth="1"/>
-    <col min="8711" max="8711" width="11.140625" style="28" customWidth="1"/>
-    <col min="8712" max="8712" width="4.28515625" style="28" customWidth="1"/>
-    <col min="8713" max="8735" width="9.140625" style="28" bestFit="1"/>
+    <col min="8709" max="8710" width="13.1796875" style="28" customWidth="1"/>
+    <col min="8711" max="8711" width="11.1796875" style="28" customWidth="1"/>
+    <col min="8712" max="8712" width="4.26953125" style="28" customWidth="1"/>
+    <col min="8713" max="8735" width="9.1796875" style="28" bestFit="1"/>
     <col min="8736" max="8786" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="8787" max="8960" width="9.140625" style="28"/>
+    <col min="8787" max="8960" width="9.1796875" style="28"/>
     <col min="8961" max="8961" width="4" style="28" customWidth="1"/>
-    <col min="8962" max="8962" width="14.42578125" style="28" customWidth="1"/>
-    <col min="8963" max="8963" width="15.140625" style="28" customWidth="1"/>
+    <col min="8962" max="8962" width="14.453125" style="28" customWidth="1"/>
+    <col min="8963" max="8963" width="15.1796875" style="28" customWidth="1"/>
     <col min="8964" max="8964" width="53" style="28" customWidth="1"/>
-    <col min="8965" max="8966" width="13.140625" style="28" customWidth="1"/>
-    <col min="8967" max="8967" width="11.140625" style="28" customWidth="1"/>
-    <col min="8968" max="8968" width="4.28515625" style="28" customWidth="1"/>
-    <col min="8969" max="8991" width="9.140625" style="28" bestFit="1"/>
+    <col min="8965" max="8966" width="13.1796875" style="28" customWidth="1"/>
+    <col min="8967" max="8967" width="11.1796875" style="28" customWidth="1"/>
+    <col min="8968" max="8968" width="4.26953125" style="28" customWidth="1"/>
+    <col min="8969" max="8991" width="9.1796875" style="28" bestFit="1"/>
     <col min="8992" max="9042" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="9043" max="9216" width="9.140625" style="28"/>
+    <col min="9043" max="9216" width="9.1796875" style="28"/>
     <col min="9217" max="9217" width="4" style="28" customWidth="1"/>
-    <col min="9218" max="9218" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9219" max="9219" width="15.140625" style="28" customWidth="1"/>
+    <col min="9218" max="9218" width="14.453125" style="28" customWidth="1"/>
+    <col min="9219" max="9219" width="15.1796875" style="28" customWidth="1"/>
     <col min="9220" max="9220" width="53" style="28" customWidth="1"/>
-    <col min="9221" max="9222" width="13.140625" style="28" customWidth="1"/>
-    <col min="9223" max="9223" width="11.140625" style="28" customWidth="1"/>
-    <col min="9224" max="9224" width="4.28515625" style="28" customWidth="1"/>
-    <col min="9225" max="9247" width="9.140625" style="28" bestFit="1"/>
+    <col min="9221" max="9222" width="13.1796875" style="28" customWidth="1"/>
+    <col min="9223" max="9223" width="11.1796875" style="28" customWidth="1"/>
+    <col min="9224" max="9224" width="4.26953125" style="28" customWidth="1"/>
+    <col min="9225" max="9247" width="9.1796875" style="28" bestFit="1"/>
     <col min="9248" max="9298" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="9299" max="9472" width="9.140625" style="28"/>
+    <col min="9299" max="9472" width="9.1796875" style="28"/>
     <col min="9473" max="9473" width="4" style="28" customWidth="1"/>
-    <col min="9474" max="9474" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9475" max="9475" width="15.140625" style="28" customWidth="1"/>
+    <col min="9474" max="9474" width="14.453125" style="28" customWidth="1"/>
+    <col min="9475" max="9475" width="15.1796875" style="28" customWidth="1"/>
     <col min="9476" max="9476" width="53" style="28" customWidth="1"/>
-    <col min="9477" max="9478" width="13.140625" style="28" customWidth="1"/>
-    <col min="9479" max="9479" width="11.140625" style="28" customWidth="1"/>
-    <col min="9480" max="9480" width="4.28515625" style="28" customWidth="1"/>
-    <col min="9481" max="9503" width="9.140625" style="28" bestFit="1"/>
+    <col min="9477" max="9478" width="13.1796875" style="28" customWidth="1"/>
+    <col min="9479" max="9479" width="11.1796875" style="28" customWidth="1"/>
+    <col min="9480" max="9480" width="4.26953125" style="28" customWidth="1"/>
+    <col min="9481" max="9503" width="9.1796875" style="28" bestFit="1"/>
     <col min="9504" max="9554" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="9555" max="9728" width="9.140625" style="28"/>
+    <col min="9555" max="9728" width="9.1796875" style="28"/>
     <col min="9729" max="9729" width="4" style="28" customWidth="1"/>
-    <col min="9730" max="9730" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9731" max="9731" width="15.140625" style="28" customWidth="1"/>
+    <col min="9730" max="9730" width="14.453125" style="28" customWidth="1"/>
+    <col min="9731" max="9731" width="15.1796875" style="28" customWidth="1"/>
     <col min="9732" max="9732" width="53" style="28" customWidth="1"/>
-    <col min="9733" max="9734" width="13.140625" style="28" customWidth="1"/>
-    <col min="9735" max="9735" width="11.140625" style="28" customWidth="1"/>
-    <col min="9736" max="9736" width="4.28515625" style="28" customWidth="1"/>
-    <col min="9737" max="9759" width="9.140625" style="28" bestFit="1"/>
+    <col min="9733" max="9734" width="13.1796875" style="28" customWidth="1"/>
+    <col min="9735" max="9735" width="11.1796875" style="28" customWidth="1"/>
+    <col min="9736" max="9736" width="4.26953125" style="28" customWidth="1"/>
+    <col min="9737" max="9759" width="9.1796875" style="28" bestFit="1"/>
     <col min="9760" max="9810" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="9811" max="9984" width="9.140625" style="28"/>
+    <col min="9811" max="9984" width="9.1796875" style="28"/>
     <col min="9985" max="9985" width="4" style="28" customWidth="1"/>
-    <col min="9986" max="9986" width="14.42578125" style="28" customWidth="1"/>
-    <col min="9987" max="9987" width="15.140625" style="28" customWidth="1"/>
+    <col min="9986" max="9986" width="14.453125" style="28" customWidth="1"/>
+    <col min="9987" max="9987" width="15.1796875" style="28" customWidth="1"/>
     <col min="9988" max="9988" width="53" style="28" customWidth="1"/>
-    <col min="9989" max="9990" width="13.140625" style="28" customWidth="1"/>
-    <col min="9991" max="9991" width="11.140625" style="28" customWidth="1"/>
-    <col min="9992" max="9992" width="4.28515625" style="28" customWidth="1"/>
-    <col min="9993" max="10015" width="9.140625" style="28" bestFit="1"/>
+    <col min="9989" max="9990" width="13.1796875" style="28" customWidth="1"/>
+    <col min="9991" max="9991" width="11.1796875" style="28" customWidth="1"/>
+    <col min="9992" max="9992" width="4.26953125" style="28" customWidth="1"/>
+    <col min="9993" max="10015" width="9.1796875" style="28" bestFit="1"/>
     <col min="10016" max="10066" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="10067" max="10240" width="9.140625" style="28"/>
+    <col min="10067" max="10240" width="9.1796875" style="28"/>
     <col min="10241" max="10241" width="4" style="28" customWidth="1"/>
-    <col min="10242" max="10242" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10243" max="10243" width="15.140625" style="28" customWidth="1"/>
+    <col min="10242" max="10242" width="14.453125" style="28" customWidth="1"/>
+    <col min="10243" max="10243" width="15.1796875" style="28" customWidth="1"/>
     <col min="10244" max="10244" width="53" style="28" customWidth="1"/>
-    <col min="10245" max="10246" width="13.140625" style="28" customWidth="1"/>
-    <col min="10247" max="10247" width="11.140625" style="28" customWidth="1"/>
-    <col min="10248" max="10248" width="4.28515625" style="28" customWidth="1"/>
-    <col min="10249" max="10271" width="9.140625" style="28" bestFit="1"/>
+    <col min="10245" max="10246" width="13.1796875" style="28" customWidth="1"/>
+    <col min="10247" max="10247" width="11.1796875" style="28" customWidth="1"/>
+    <col min="10248" max="10248" width="4.26953125" style="28" customWidth="1"/>
+    <col min="10249" max="10271" width="9.1796875" style="28" bestFit="1"/>
     <col min="10272" max="10322" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="10323" max="10496" width="9.140625" style="28"/>
+    <col min="10323" max="10496" width="9.1796875" style="28"/>
     <col min="10497" max="10497" width="4" style="28" customWidth="1"/>
-    <col min="10498" max="10498" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10499" max="10499" width="15.140625" style="28" customWidth="1"/>
+    <col min="10498" max="10498" width="14.453125" style="28" customWidth="1"/>
+    <col min="10499" max="10499" width="15.1796875" style="28" customWidth="1"/>
     <col min="10500" max="10500" width="53" style="28" customWidth="1"/>
-    <col min="10501" max="10502" width="13.140625" style="28" customWidth="1"/>
-    <col min="10503" max="10503" width="11.140625" style="28" customWidth="1"/>
-    <col min="10504" max="10504" width="4.28515625" style="28" customWidth="1"/>
-    <col min="10505" max="10527" width="9.140625" style="28" bestFit="1"/>
+    <col min="10501" max="10502" width="13.1796875" style="28" customWidth="1"/>
+    <col min="10503" max="10503" width="11.1796875" style="28" customWidth="1"/>
+    <col min="10504" max="10504" width="4.26953125" style="28" customWidth="1"/>
+    <col min="10505" max="10527" width="9.1796875" style="28" bestFit="1"/>
     <col min="10528" max="10578" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="10579" max="10752" width="9.140625" style="28"/>
+    <col min="10579" max="10752" width="9.1796875" style="28"/>
     <col min="10753" max="10753" width="4" style="28" customWidth="1"/>
-    <col min="10754" max="10754" width="14.42578125" style="28" customWidth="1"/>
-    <col min="10755" max="10755" width="15.140625" style="28" customWidth="1"/>
+    <col min="10754" max="10754" width="14.453125" style="28" customWidth="1"/>
+    <col min="10755" max="10755" width="15.1796875" style="28" customWidth="1"/>
     <col min="10756" max="10756" width="53" style="28" customWidth="1"/>
-    <col min="10757" max="10758" width="13.140625" style="28" customWidth="1"/>
-    <col min="10759" max="10759" width="11.140625" style="28" customWidth="1"/>
-    <col min="10760" max="10760" width="4.28515625" style="28" customWidth="1"/>
-    <col min="10761" max="10783" width="9.140625" style="28" bestFit="1"/>
+    <col min="10757" max="10758" width="13.1796875" style="28" customWidth="1"/>
+    <col min="10759" max="10759" width="11.1796875" style="28" customWidth="1"/>
+    <col min="10760" max="10760" width="4.26953125" style="28" customWidth="1"/>
+    <col min="10761" max="10783" width="9.1796875" style="28" bestFit="1"/>
     <col min="10784" max="10834" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="10835" max="11008" width="9.140625" style="28"/>
+    <col min="10835" max="11008" width="9.1796875" style="28"/>
     <col min="11009" max="11009" width="4" style="28" customWidth="1"/>
-    <col min="11010" max="11010" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11011" max="11011" width="15.140625" style="28" customWidth="1"/>
+    <col min="11010" max="11010" width="14.453125" style="28" customWidth="1"/>
+    <col min="11011" max="11011" width="15.1796875" style="28" customWidth="1"/>
     <col min="11012" max="11012" width="53" style="28" customWidth="1"/>
-    <col min="11013" max="11014" width="13.140625" style="28" customWidth="1"/>
-    <col min="11015" max="11015" width="11.140625" style="28" customWidth="1"/>
-    <col min="11016" max="11016" width="4.28515625" style="28" customWidth="1"/>
-    <col min="11017" max="11039" width="9.140625" style="28" bestFit="1"/>
+    <col min="11013" max="11014" width="13.1796875" style="28" customWidth="1"/>
+    <col min="11015" max="11015" width="11.1796875" style="28" customWidth="1"/>
+    <col min="11016" max="11016" width="4.26953125" style="28" customWidth="1"/>
+    <col min="11017" max="11039" width="9.1796875" style="28" bestFit="1"/>
     <col min="11040" max="11090" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="11091" max="11264" width="9.140625" style="28"/>
+    <col min="11091" max="11264" width="9.1796875" style="28"/>
     <col min="11265" max="11265" width="4" style="28" customWidth="1"/>
-    <col min="11266" max="11266" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11267" max="11267" width="15.140625" style="28" customWidth="1"/>
+    <col min="11266" max="11266" width="14.453125" style="28" customWidth="1"/>
+    <col min="11267" max="11267" width="15.1796875" style="28" customWidth="1"/>
     <col min="11268" max="11268" width="53" style="28" customWidth="1"/>
-    <col min="11269" max="11270" width="13.140625" style="28" customWidth="1"/>
-    <col min="11271" max="11271" width="11.140625" style="28" customWidth="1"/>
-    <col min="11272" max="11272" width="4.28515625" style="28" customWidth="1"/>
-    <col min="11273" max="11295" width="9.140625" style="28" bestFit="1"/>
+    <col min="11269" max="11270" width="13.1796875" style="28" customWidth="1"/>
+    <col min="11271" max="11271" width="11.1796875" style="28" customWidth="1"/>
+    <col min="11272" max="11272" width="4.26953125" style="28" customWidth="1"/>
+    <col min="11273" max="11295" width="9.1796875" style="28" bestFit="1"/>
     <col min="11296" max="11346" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="11347" max="11520" width="9.140625" style="28"/>
+    <col min="11347" max="11520" width="9.1796875" style="28"/>
     <col min="11521" max="11521" width="4" style="28" customWidth="1"/>
-    <col min="11522" max="11522" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11523" max="11523" width="15.140625" style="28" customWidth="1"/>
+    <col min="11522" max="11522" width="14.453125" style="28" customWidth="1"/>
+    <col min="11523" max="11523" width="15.1796875" style="28" customWidth="1"/>
     <col min="11524" max="11524" width="53" style="28" customWidth="1"/>
-    <col min="11525" max="11526" width="13.140625" style="28" customWidth="1"/>
-    <col min="11527" max="11527" width="11.140625" style="28" customWidth="1"/>
-    <col min="11528" max="11528" width="4.28515625" style="28" customWidth="1"/>
-    <col min="11529" max="11551" width="9.140625" style="28" bestFit="1"/>
+    <col min="11525" max="11526" width="13.1796875" style="28" customWidth="1"/>
+    <col min="11527" max="11527" width="11.1796875" style="28" customWidth="1"/>
+    <col min="11528" max="11528" width="4.26953125" style="28" customWidth="1"/>
+    <col min="11529" max="11551" width="9.1796875" style="28" bestFit="1"/>
     <col min="11552" max="11602" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="11603" max="11776" width="9.140625" style="28"/>
+    <col min="11603" max="11776" width="9.1796875" style="28"/>
     <col min="11777" max="11777" width="4" style="28" customWidth="1"/>
-    <col min="11778" max="11778" width="14.42578125" style="28" customWidth="1"/>
-    <col min="11779" max="11779" width="15.140625" style="28" customWidth="1"/>
+    <col min="11778" max="11778" width="14.453125" style="28" customWidth="1"/>
+    <col min="11779" max="11779" width="15.1796875" style="28" customWidth="1"/>
     <col min="11780" max="11780" width="53" style="28" customWidth="1"/>
-    <col min="11781" max="11782" width="13.140625" style="28" customWidth="1"/>
-    <col min="11783" max="11783" width="11.140625" style="28" customWidth="1"/>
-    <col min="11784" max="11784" width="4.28515625" style="28" customWidth="1"/>
-    <col min="11785" max="11807" width="9.140625" style="28" bestFit="1"/>
+    <col min="11781" max="11782" width="13.1796875" style="28" customWidth="1"/>
+    <col min="11783" max="11783" width="11.1796875" style="28" customWidth="1"/>
+    <col min="11784" max="11784" width="4.26953125" style="28" customWidth="1"/>
+    <col min="11785" max="11807" width="9.1796875" style="28" bestFit="1"/>
     <col min="11808" max="11858" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="11859" max="12032" width="9.140625" style="28"/>
+    <col min="11859" max="12032" width="9.1796875" style="28"/>
     <col min="12033" max="12033" width="4" style="28" customWidth="1"/>
-    <col min="12034" max="12034" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12035" max="12035" width="15.140625" style="28" customWidth="1"/>
+    <col min="12034" max="12034" width="14.453125" style="28" customWidth="1"/>
+    <col min="12035" max="12035" width="15.1796875" style="28" customWidth="1"/>
     <col min="12036" max="12036" width="53" style="28" customWidth="1"/>
-    <col min="12037" max="12038" width="13.140625" style="28" customWidth="1"/>
-    <col min="12039" max="12039" width="11.140625" style="28" customWidth="1"/>
-    <col min="12040" max="12040" width="4.28515625" style="28" customWidth="1"/>
-    <col min="12041" max="12063" width="9.140625" style="28" bestFit="1"/>
+    <col min="12037" max="12038" width="13.1796875" style="28" customWidth="1"/>
+    <col min="12039" max="12039" width="11.1796875" style="28" customWidth="1"/>
+    <col min="12040" max="12040" width="4.26953125" style="28" customWidth="1"/>
+    <col min="12041" max="12063" width="9.1796875" style="28" bestFit="1"/>
     <col min="12064" max="12114" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="12115" max="12288" width="9.140625" style="28"/>
+    <col min="12115" max="12288" width="9.1796875" style="28"/>
     <col min="12289" max="12289" width="4" style="28" customWidth="1"/>
-    <col min="12290" max="12290" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12291" max="12291" width="15.140625" style="28" customWidth="1"/>
+    <col min="12290" max="12290" width="14.453125" style="28" customWidth="1"/>
+    <col min="12291" max="12291" width="15.1796875" style="28" customWidth="1"/>
     <col min="12292" max="12292" width="53" style="28" customWidth="1"/>
-    <col min="12293" max="12294" width="13.140625" style="28" customWidth="1"/>
-    <col min="12295" max="12295" width="11.140625" style="28" customWidth="1"/>
-    <col min="12296" max="12296" width="4.28515625" style="28" customWidth="1"/>
-    <col min="12297" max="12319" width="9.140625" style="28" bestFit="1"/>
+    <col min="12293" max="12294" width="13.1796875" style="28" customWidth="1"/>
+    <col min="12295" max="12295" width="11.1796875" style="28" customWidth="1"/>
+    <col min="12296" max="12296" width="4.26953125" style="28" customWidth="1"/>
+    <col min="12297" max="12319" width="9.1796875" style="28" bestFit="1"/>
     <col min="12320" max="12370" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="12371" max="12544" width="9.140625" style="28"/>
+    <col min="12371" max="12544" width="9.1796875" style="28"/>
     <col min="12545" max="12545" width="4" style="28" customWidth="1"/>
-    <col min="12546" max="12546" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12547" max="12547" width="15.140625" style="28" customWidth="1"/>
+    <col min="12546" max="12546" width="14.453125" style="28" customWidth="1"/>
+    <col min="12547" max="12547" width="15.1796875" style="28" customWidth="1"/>
     <col min="12548" max="12548" width="53" style="28" customWidth="1"/>
-    <col min="12549" max="12550" width="13.140625" style="28" customWidth="1"/>
-    <col min="12551" max="12551" width="11.140625" style="28" customWidth="1"/>
-    <col min="12552" max="12552" width="4.28515625" style="28" customWidth="1"/>
-    <col min="12553" max="12575" width="9.140625" style="28" bestFit="1"/>
+    <col min="12549" max="12550" width="13.1796875" style="28" customWidth="1"/>
+    <col min="12551" max="12551" width="11.1796875" style="28" customWidth="1"/>
+    <col min="12552" max="12552" width="4.26953125" style="28" customWidth="1"/>
+    <col min="12553" max="12575" width="9.1796875" style="28" bestFit="1"/>
     <col min="12576" max="12626" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="12627" max="12800" width="9.140625" style="28"/>
+    <col min="12627" max="12800" width="9.1796875" style="28"/>
     <col min="12801" max="12801" width="4" style="28" customWidth="1"/>
-    <col min="12802" max="12802" width="14.42578125" style="28" customWidth="1"/>
-    <col min="12803" max="12803" width="15.140625" style="28" customWidth="1"/>
+    <col min="12802" max="12802" width="14.453125" style="28" customWidth="1"/>
+    <col min="12803" max="12803" width="15.1796875" style="28" customWidth="1"/>
     <col min="12804" max="12804" width="53" style="28" customWidth="1"/>
-    <col min="12805" max="12806" width="13.140625" style="28" customWidth="1"/>
-    <col min="12807" max="12807" width="11.140625" style="28" customWidth="1"/>
-    <col min="12808" max="12808" width="4.28515625" style="28" customWidth="1"/>
-    <col min="12809" max="12831" width="9.140625" style="28" bestFit="1"/>
+    <col min="12805" max="12806" width="13.1796875" style="28" customWidth="1"/>
+    <col min="12807" max="12807" width="11.1796875" style="28" customWidth="1"/>
+    <col min="12808" max="12808" width="4.26953125" style="28" customWidth="1"/>
+    <col min="12809" max="12831" width="9.1796875" style="28" bestFit="1"/>
     <col min="12832" max="12882" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="12883" max="13056" width="9.140625" style="28"/>
+    <col min="12883" max="13056" width="9.1796875" style="28"/>
     <col min="13057" max="13057" width="4" style="28" customWidth="1"/>
-    <col min="13058" max="13058" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13059" max="13059" width="15.140625" style="28" customWidth="1"/>
+    <col min="13058" max="13058" width="14.453125" style="28" customWidth="1"/>
+    <col min="13059" max="13059" width="15.1796875" style="28" customWidth="1"/>
     <col min="13060" max="13060" width="53" style="28" customWidth="1"/>
-    <col min="13061" max="13062" width="13.140625" style="28" customWidth="1"/>
-    <col min="13063" max="13063" width="11.140625" style="28" customWidth="1"/>
-    <col min="13064" max="13064" width="4.28515625" style="28" customWidth="1"/>
-    <col min="13065" max="13087" width="9.140625" style="28" bestFit="1"/>
+    <col min="13061" max="13062" width="13.1796875" style="28" customWidth="1"/>
+    <col min="13063" max="13063" width="11.1796875" style="28" customWidth="1"/>
+    <col min="13064" max="13064" width="4.26953125" style="28" customWidth="1"/>
+    <col min="13065" max="13087" width="9.1796875" style="28" bestFit="1"/>
     <col min="13088" max="13138" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="13139" max="13312" width="9.140625" style="28"/>
+    <col min="13139" max="13312" width="9.1796875" style="28"/>
     <col min="13313" max="13313" width="4" style="28" customWidth="1"/>
-    <col min="13314" max="13314" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13315" max="13315" width="15.140625" style="28" customWidth="1"/>
+    <col min="13314" max="13314" width="14.453125" style="28" customWidth="1"/>
+    <col min="13315" max="13315" width="15.1796875" style="28" customWidth="1"/>
     <col min="13316" max="13316" width="53" style="28" customWidth="1"/>
-    <col min="13317" max="13318" width="13.140625" style="28" customWidth="1"/>
-    <col min="13319" max="13319" width="11.140625" style="28" customWidth="1"/>
-    <col min="13320" max="13320" width="4.28515625" style="28" customWidth="1"/>
-    <col min="13321" max="13343" width="9.140625" style="28" bestFit="1"/>
+    <col min="13317" max="13318" width="13.1796875" style="28" customWidth="1"/>
+    <col min="13319" max="13319" width="11.1796875" style="28" customWidth="1"/>
+    <col min="13320" max="13320" width="4.26953125" style="28" customWidth="1"/>
+    <col min="13321" max="13343" width="9.1796875" style="28" bestFit="1"/>
     <col min="13344" max="13394" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="13395" max="13568" width="9.140625" style="28"/>
+    <col min="13395" max="13568" width="9.1796875" style="28"/>
     <col min="13569" max="13569" width="4" style="28" customWidth="1"/>
-    <col min="13570" max="13570" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13571" max="13571" width="15.140625" style="28" customWidth="1"/>
+    <col min="13570" max="13570" width="14.453125" style="28" customWidth="1"/>
+    <col min="13571" max="13571" width="15.1796875" style="28" customWidth="1"/>
     <col min="13572" max="13572" width="53" style="28" customWidth="1"/>
-    <col min="13573" max="13574" width="13.140625" style="28" customWidth="1"/>
-    <col min="13575" max="13575" width="11.140625" style="28" customWidth="1"/>
-    <col min="13576" max="13576" width="4.28515625" style="28" customWidth="1"/>
-    <col min="13577" max="13599" width="9.140625" style="28" bestFit="1"/>
+    <col min="13573" max="13574" width="13.1796875" style="28" customWidth="1"/>
+    <col min="13575" max="13575" width="11.1796875" style="28" customWidth="1"/>
+    <col min="13576" max="13576" width="4.26953125" style="28" customWidth="1"/>
+    <col min="13577" max="13599" width="9.1796875" style="28" bestFit="1"/>
     <col min="13600" max="13650" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="13651" max="13824" width="9.140625" style="28"/>
+    <col min="13651" max="13824" width="9.1796875" style="28"/>
     <col min="13825" max="13825" width="4" style="28" customWidth="1"/>
-    <col min="13826" max="13826" width="14.42578125" style="28" customWidth="1"/>
-    <col min="13827" max="13827" width="15.140625" style="28" customWidth="1"/>
+    <col min="13826" max="13826" width="14.453125" style="28" customWidth="1"/>
+    <col min="13827" max="13827" width="15.1796875" style="28" customWidth="1"/>
     <col min="13828" max="13828" width="53" style="28" customWidth="1"/>
-    <col min="13829" max="13830" width="13.140625" style="28" customWidth="1"/>
-    <col min="13831" max="13831" width="11.140625" style="28" customWidth="1"/>
-    <col min="13832" max="13832" width="4.28515625" style="28" customWidth="1"/>
-    <col min="13833" max="13855" width="9.140625" style="28" bestFit="1"/>
+    <col min="13829" max="13830" width="13.1796875" style="28" customWidth="1"/>
+    <col min="13831" max="13831" width="11.1796875" style="28" customWidth="1"/>
+    <col min="13832" max="13832" width="4.26953125" style="28" customWidth="1"/>
+    <col min="13833" max="13855" width="9.1796875" style="28" bestFit="1"/>
     <col min="13856" max="13906" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="13907" max="14080" width="9.140625" style="28"/>
+    <col min="13907" max="14080" width="9.1796875" style="28"/>
     <col min="14081" max="14081" width="4" style="28" customWidth="1"/>
-    <col min="14082" max="14082" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14083" max="14083" width="15.140625" style="28" customWidth="1"/>
+    <col min="14082" max="14082" width="14.453125" style="28" customWidth="1"/>
+    <col min="14083" max="14083" width="15.1796875" style="28" customWidth="1"/>
     <col min="14084" max="14084" width="53" style="28" customWidth="1"/>
-    <col min="14085" max="14086" width="13.140625" style="28" customWidth="1"/>
-    <col min="14087" max="14087" width="11.140625" style="28" customWidth="1"/>
-    <col min="14088" max="14088" width="4.28515625" style="28" customWidth="1"/>
-    <col min="14089" max="14111" width="9.140625" style="28" bestFit="1"/>
+    <col min="14085" max="14086" width="13.1796875" style="28" customWidth="1"/>
+    <col min="14087" max="14087" width="11.1796875" style="28" customWidth="1"/>
+    <col min="14088" max="14088" width="4.26953125" style="28" customWidth="1"/>
+    <col min="14089" max="14111" width="9.1796875" style="28" bestFit="1"/>
     <col min="14112" max="14162" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="14163" max="14336" width="9.140625" style="28"/>
+    <col min="14163" max="14336" width="9.1796875" style="28"/>
     <col min="14337" max="14337" width="4" style="28" customWidth="1"/>
-    <col min="14338" max="14338" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14339" max="14339" width="15.140625" style="28" customWidth="1"/>
+    <col min="14338" max="14338" width="14.453125" style="28" customWidth="1"/>
+    <col min="14339" max="14339" width="15.1796875" style="28" customWidth="1"/>
     <col min="14340" max="14340" width="53" style="28" customWidth="1"/>
-    <col min="14341" max="14342" width="13.140625" style="28" customWidth="1"/>
-    <col min="14343" max="14343" width="11.140625" style="28" customWidth="1"/>
-    <col min="14344" max="14344" width="4.28515625" style="28" customWidth="1"/>
-    <col min="14345" max="14367" width="9.140625" style="28" bestFit="1"/>
+    <col min="14341" max="14342" width="13.1796875" style="28" customWidth="1"/>
+    <col min="14343" max="14343" width="11.1796875" style="28" customWidth="1"/>
+    <col min="14344" max="14344" width="4.26953125" style="28" customWidth="1"/>
+    <col min="14345" max="14367" width="9.1796875" style="28" bestFit="1"/>
     <col min="14368" max="14418" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="14419" max="14592" width="9.140625" style="28"/>
+    <col min="14419" max="14592" width="9.1796875" style="28"/>
     <col min="14593" max="14593" width="4" style="28" customWidth="1"/>
-    <col min="14594" max="14594" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14595" max="14595" width="15.140625" style="28" customWidth="1"/>
+    <col min="14594" max="14594" width="14.453125" style="28" customWidth="1"/>
+    <col min="14595" max="14595" width="15.1796875" style="28" customWidth="1"/>
     <col min="14596" max="14596" width="53" style="28" customWidth="1"/>
-    <col min="14597" max="14598" width="13.140625" style="28" customWidth="1"/>
-    <col min="14599" max="14599" width="11.140625" style="28" customWidth="1"/>
-    <col min="14600" max="14600" width="4.28515625" style="28" customWidth="1"/>
-    <col min="14601" max="14623" width="9.140625" style="28" bestFit="1"/>
+    <col min="14597" max="14598" width="13.1796875" style="28" customWidth="1"/>
+    <col min="14599" max="14599" width="11.1796875" style="28" customWidth="1"/>
+    <col min="14600" max="14600" width="4.26953125" style="28" customWidth="1"/>
+    <col min="14601" max="14623" width="9.1796875" style="28" bestFit="1"/>
     <col min="14624" max="14674" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="14675" max="14848" width="9.140625" style="28"/>
+    <col min="14675" max="14848" width="9.1796875" style="28"/>
     <col min="14849" max="14849" width="4" style="28" customWidth="1"/>
-    <col min="14850" max="14850" width="14.42578125" style="28" customWidth="1"/>
-    <col min="14851" max="14851" width="15.140625" style="28" customWidth="1"/>
+    <col min="14850" max="14850" width="14.453125" style="28" customWidth="1"/>
+    <col min="14851" max="14851" width="15.1796875" style="28" customWidth="1"/>
     <col min="14852" max="14852" width="53" style="28" customWidth="1"/>
-    <col min="14853" max="14854" width="13.140625" style="28" customWidth="1"/>
-    <col min="14855" max="14855" width="11.140625" style="28" customWidth="1"/>
-    <col min="14856" max="14856" width="4.28515625" style="28" customWidth="1"/>
-    <col min="14857" max="14879" width="9.140625" style="28" bestFit="1"/>
+    <col min="14853" max="14854" width="13.1796875" style="28" customWidth="1"/>
+    <col min="14855" max="14855" width="11.1796875" style="28" customWidth="1"/>
+    <col min="14856" max="14856" width="4.26953125" style="28" customWidth="1"/>
+    <col min="14857" max="14879" width="9.1796875" style="28" bestFit="1"/>
     <col min="14880" max="14930" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="14931" max="15104" width="9.140625" style="28"/>
+    <col min="14931" max="15104" width="9.1796875" style="28"/>
     <col min="15105" max="15105" width="4" style="28" customWidth="1"/>
-    <col min="15106" max="15106" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15107" max="15107" width="15.140625" style="28" customWidth="1"/>
+    <col min="15106" max="15106" width="14.453125" style="28" customWidth="1"/>
+    <col min="15107" max="15107" width="15.1796875" style="28" customWidth="1"/>
     <col min="15108" max="15108" width="53" style="28" customWidth="1"/>
-    <col min="15109" max="15110" width="13.140625" style="28" customWidth="1"/>
-    <col min="15111" max="15111" width="11.140625" style="28" customWidth="1"/>
-    <col min="15112" max="15112" width="4.28515625" style="28" customWidth="1"/>
-    <col min="15113" max="15135" width="9.140625" style="28" bestFit="1"/>
+    <col min="15109" max="15110" width="13.1796875" style="28" customWidth="1"/>
+    <col min="15111" max="15111" width="11.1796875" style="28" customWidth="1"/>
+    <col min="15112" max="15112" width="4.26953125" style="28" customWidth="1"/>
+    <col min="15113" max="15135" width="9.1796875" style="28" bestFit="1"/>
     <col min="15136" max="15186" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="15187" max="15360" width="9.140625" style="28"/>
+    <col min="15187" max="15360" width="9.1796875" style="28"/>
     <col min="15361" max="15361" width="4" style="28" customWidth="1"/>
-    <col min="15362" max="15362" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15363" max="15363" width="15.140625" style="28" customWidth="1"/>
+    <col min="15362" max="15362" width="14.453125" style="28" customWidth="1"/>
+    <col min="15363" max="15363" width="15.1796875" style="28" customWidth="1"/>
     <col min="15364" max="15364" width="53" style="28" customWidth="1"/>
-    <col min="15365" max="15366" width="13.140625" style="28" customWidth="1"/>
-    <col min="15367" max="15367" width="11.140625" style="28" customWidth="1"/>
-    <col min="15368" max="15368" width="4.28515625" style="28" customWidth="1"/>
-    <col min="15369" max="15391" width="9.140625" style="28" bestFit="1"/>
+    <col min="15365" max="15366" width="13.1796875" style="28" customWidth="1"/>
+    <col min="15367" max="15367" width="11.1796875" style="28" customWidth="1"/>
+    <col min="15368" max="15368" width="4.26953125" style="28" customWidth="1"/>
+    <col min="15369" max="15391" width="9.1796875" style="28" bestFit="1"/>
     <col min="15392" max="15442" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="15443" max="15616" width="9.140625" style="28"/>
+    <col min="15443" max="15616" width="9.1796875" style="28"/>
     <col min="15617" max="15617" width="4" style="28" customWidth="1"/>
-    <col min="15618" max="15618" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15619" max="15619" width="15.140625" style="28" customWidth="1"/>
+    <col min="15618" max="15618" width="14.453125" style="28" customWidth="1"/>
+    <col min="15619" max="15619" width="15.1796875" style="28" customWidth="1"/>
     <col min="15620" max="15620" width="53" style="28" customWidth="1"/>
-    <col min="15621" max="15622" width="13.140625" style="28" customWidth="1"/>
-    <col min="15623" max="15623" width="11.140625" style="28" customWidth="1"/>
-    <col min="15624" max="15624" width="4.28515625" style="28" customWidth="1"/>
-    <col min="15625" max="15647" width="9.140625" style="28" bestFit="1"/>
+    <col min="15621" max="15622" width="13.1796875" style="28" customWidth="1"/>
+    <col min="15623" max="15623" width="11.1796875" style="28" customWidth="1"/>
+    <col min="15624" max="15624" width="4.26953125" style="28" customWidth="1"/>
+    <col min="15625" max="15647" width="9.1796875" style="28" bestFit="1"/>
     <col min="15648" max="15698" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="15699" max="15872" width="9.140625" style="28"/>
+    <col min="15699" max="15872" width="9.1796875" style="28"/>
     <col min="15873" max="15873" width="4" style="28" customWidth="1"/>
-    <col min="15874" max="15874" width="14.42578125" style="28" customWidth="1"/>
-    <col min="15875" max="15875" width="15.140625" style="28" customWidth="1"/>
+    <col min="15874" max="15874" width="14.453125" style="28" customWidth="1"/>
+    <col min="15875" max="15875" width="15.1796875" style="28" customWidth="1"/>
     <col min="15876" max="15876" width="53" style="28" customWidth="1"/>
-    <col min="15877" max="15878" width="13.140625" style="28" customWidth="1"/>
-    <col min="15879" max="15879" width="11.140625" style="28" customWidth="1"/>
-    <col min="15880" max="15880" width="4.28515625" style="28" customWidth="1"/>
-    <col min="15881" max="15903" width="9.140625" style="28" bestFit="1"/>
+    <col min="15877" max="15878" width="13.1796875" style="28" customWidth="1"/>
+    <col min="15879" max="15879" width="11.1796875" style="28" customWidth="1"/>
+    <col min="15880" max="15880" width="4.26953125" style="28" customWidth="1"/>
+    <col min="15881" max="15903" width="9.1796875" style="28" bestFit="1"/>
     <col min="15904" max="15954" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="15955" max="16128" width="9.140625" style="28"/>
+    <col min="15955" max="16128" width="9.1796875" style="28"/>
     <col min="16129" max="16129" width="4" style="28" customWidth="1"/>
-    <col min="16130" max="16130" width="14.42578125" style="28" customWidth="1"/>
-    <col min="16131" max="16131" width="15.140625" style="28" customWidth="1"/>
+    <col min="16130" max="16130" width="14.453125" style="28" customWidth="1"/>
+    <col min="16131" max="16131" width="15.1796875" style="28" customWidth="1"/>
     <col min="16132" max="16132" width="53" style="28" customWidth="1"/>
-    <col min="16133" max="16134" width="13.140625" style="28" customWidth="1"/>
-    <col min="16135" max="16135" width="11.140625" style="28" customWidth="1"/>
-    <col min="16136" max="16136" width="4.28515625" style="28" customWidth="1"/>
-    <col min="16137" max="16159" width="9.140625" style="28" bestFit="1"/>
+    <col min="16133" max="16134" width="13.1796875" style="28" customWidth="1"/>
+    <col min="16135" max="16135" width="11.1796875" style="28" customWidth="1"/>
+    <col min="16136" max="16136" width="4.26953125" style="28" customWidth="1"/>
+    <col min="16137" max="16159" width="9.1796875" style="28" bestFit="1"/>
     <col min="16160" max="16210" width="0" style="28" hidden="1" customWidth="1"/>
-    <col min="16211" max="16384" width="9.140625" style="28"/>
+    <col min="16211" max="16384" width="9.1796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-    </row>
-    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
@@ -3444,83 +3444,83 @@
       <c r="G5" s="73"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -3530,7 +3530,7 @@
       <c r="G12" s="75"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
@@ -3540,7 +3540,7 @@
       <c r="G13" s="75"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
@@ -3550,7 +3550,7 @@
       <c r="G14" s="75"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
@@ -3560,7 +3560,7 @@
       <c r="G15" s="75"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
       <c r="B16" s="74"/>
       <c r="C16" s="74"/>
@@ -3570,7 +3570,7 @@
       <c r="G16" s="75"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="74"/>
       <c r="C17" s="74"/>
@@ -3580,7 +3580,7 @@
       <c r="G17" s="75"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
@@ -3590,7 +3590,7 @@
       <c r="G18" s="75"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
@@ -3600,7 +3600,7 @@
       <c r="G19" s="75"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -3610,7 +3610,7 @@
       <c r="G20" s="75"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29"/>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
@@ -3620,7 +3620,7 @@
       <c r="G21" s="75"/>
       <c r="H21" s="30"/>
     </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -3630,7 +3630,7 @@
       <c r="G22" s="34"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
@@ -3640,7 +3640,7 @@
       <c r="G23" s="38"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
@@ -3650,7 +3650,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
@@ -3660,7 +3660,7 @@
       <c r="G25" s="38"/>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
@@ -3670,7 +3670,7 @@
       <c r="G26" s="38"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
@@ -3680,7 +3680,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
@@ -3690,7 +3690,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
@@ -3700,7 +3700,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
@@ -3710,7 +3710,7 @@
       <c r="G30" s="38"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
@@ -3720,7 +3720,7 @@
       <c r="G31" s="38"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="39"/>
       <c r="C32" s="36"/>
@@ -3730,7 +3730,7 @@
       <c r="G32" s="38"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="39" t="s">
         <v>11</v>
@@ -3744,7 +3744,7 @@
       <c r="G33" s="38"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29"/>
       <c r="B34" s="41" t="s">
         <v>13</v>
@@ -3769,7 +3769,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -3781,12 +3781,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3797,6 +3791,12 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3808,258 +3808,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="142"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="134"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="134"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="134"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="122"/>
+      <c r="D14" s="110"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="134"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="122"/>
+      <c r="D15" s="110"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="134"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="122"/>
+      <c r="D16" s="110"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="134"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="122"/>
+      <c r="D17" s="110"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="109"/>
+      <c r="D20" s="110"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
       <c r="B26" s="67" t="s">
         <v>43</v>
@@ -4071,7 +4071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="C27" s="64"/>
       <c r="D27" s="65"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="C28" s="64"/>
       <c r="D28" s="65"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="C29" s="64"/>
       <c r="D29" s="65"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="C30" s="64"/>
       <c r="D30" s="65"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="C31" s="64"/>
       <c r="D31" s="65"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="C32" s="64"/>
       <c r="D32" s="65"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="C33" s="64"/>
       <c r="D33" s="65"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="C35" s="64"/>
       <c r="D35" s="65"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="C36" s="64"/>
       <c r="D36" s="65"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="C37" s="64"/>
       <c r="D37" s="65"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="C38" s="64"/>
       <c r="D38" s="65"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="C39" s="64"/>
       <c r="D39" s="65"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>34</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="C41" s="64"/>
       <c r="D41" s="65"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="C42" s="64"/>
       <c r="D42" s="65"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="C43" s="76"/>
       <c r="D43" s="65"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="C44" s="49"/>
       <c r="D44" s="65"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="C45" s="64"/>
       <c r="D45" s="65"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -4271,7 +4271,7 @@
       <c r="C46" s="64"/>
       <c r="D46" s="65"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -4281,1029 +4281,1029 @@
       <c r="C47" s="64"/>
       <c r="D47" s="65"/>
     </row>
-    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="111"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
       <c r="B50" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
       <c r="B51" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="108"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
       <c r="B52" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="108"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="123"/>
+      <c r="D52" s="124"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
       <c r="B53" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="108"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="123"/>
+      <c r="D53" s="124"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
       <c r="B54" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="108"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="123"/>
+      <c r="D54" s="124"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
       <c r="B55" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="108"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="123"/>
+      <c r="D55" s="124"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
       <c r="B56" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="108"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="123"/>
+      <c r="D56" s="124"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="110"/>
-      <c r="D57" s="111"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="120"/>
+      <c r="D57" s="121"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="110"/>
-      <c r="D58" s="111"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="120"/>
+      <c r="D58" s="121"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
       <c r="B59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="108"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="111"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="117"/>
-      <c r="D61" s="113"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="117"/>
-      <c r="D62" s="113"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>52</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="117"/>
-      <c r="D63" s="113"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="107"/>
+      <c r="D63" s="108"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>53</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="113"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="107"/>
+      <c r="D64" s="108"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>54</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="117"/>
-      <c r="D65" s="113"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>55</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="117"/>
-      <c r="D66" s="113"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="107"/>
+      <c r="D66" s="108"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="109" t="s">
+      <c r="B67" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="110"/>
-      <c r="D67" s="111"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="120"/>
+      <c r="D67" s="121"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
       <c r="B68" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="108"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="123"/>
+      <c r="D68" s="124"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="110"/>
-      <c r="D69" s="111"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="120"/>
+      <c r="D69" s="121"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
       <c r="B70" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="107"/>
-      <c r="D70" s="108"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
       <c r="B71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="107"/>
-      <c r="D71" s="108"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
       <c r="B72" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="107"/>
-      <c r="D72" s="108"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="123"/>
+      <c r="D72" s="124"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
       <c r="B73" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="107"/>
-      <c r="D73" s="108"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="123"/>
+      <c r="D73" s="124"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
       <c r="B74" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="107"/>
-      <c r="D74" s="108"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="123"/>
+      <c r="D74" s="124"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="131" t="s">
+      <c r="B75" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="131"/>
-      <c r="D75" s="132"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="125"/>
+      <c r="D75" s="126"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
       <c r="B76" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="107"/>
-      <c r="D76" s="108"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="123"/>
+      <c r="D76" s="124"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
       <c r="B77" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="107"/>
-      <c r="D77" s="108"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
       <c r="B78" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="107"/>
-      <c r="D78" s="108"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="123"/>
+      <c r="D78" s="124"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
       <c r="B79" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="107"/>
-      <c r="D79" s="108"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="123"/>
+      <c r="D79" s="124"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
       <c r="B80" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="107"/>
-      <c r="D80" s="108"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="123"/>
+      <c r="D80" s="124"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="131"/>
-      <c r="D81" s="132"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="125"/>
+      <c r="D81" s="126"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
       <c r="B82" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="107"/>
-      <c r="D82" s="108"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="123"/>
+      <c r="D82" s="124"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
       <c r="B83" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="107"/>
-      <c r="D83" s="108"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="123"/>
+      <c r="D83" s="124"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
       <c r="B84" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="123"/>
+      <c r="D84" s="124"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
       <c r="B85" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="107"/>
-      <c r="D85" s="108"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
       <c r="B86" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="107"/>
-      <c r="D86" s="108"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="123"/>
+      <c r="D86" s="124"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>72</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="107"/>
-      <c r="D87" s="108"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="123"/>
+      <c r="D87" s="124"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
       <c r="B88" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="107"/>
-      <c r="D88" s="108"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="123"/>
+      <c r="D88" s="124"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
       <c r="B89" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="107"/>
-      <c r="D89" s="108"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="123"/>
+      <c r="D89" s="124"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="109" t="s">
+      <c r="B90" s="119" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="110"/>
-      <c r="D90" s="111"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="120"/>
+      <c r="D90" s="121"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
       <c r="B91" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="107"/>
-      <c r="D91" s="108"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="123"/>
+      <c r="D91" s="124"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
       <c r="B92" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="107"/>
-      <c r="D92" s="108"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="123"/>
+      <c r="D92" s="124"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
       <c r="B93" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="107"/>
-      <c r="D93" s="108"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="123"/>
+      <c r="D93" s="124"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
       <c r="B94" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="107"/>
-      <c r="D94" s="108"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="123"/>
+      <c r="D94" s="124"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="109" t="s">
+      <c r="B95" s="119" t="s">
         <v>365</v>
       </c>
-      <c r="C95" s="110"/>
-      <c r="D95" s="111"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="120"/>
+      <c r="D95" s="121"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
       <c r="B96" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="107"/>
-      <c r="D96" s="108"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="123"/>
+      <c r="D96" s="124"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
       <c r="B97" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="117"/>
-      <c r="D97" s="113"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="107"/>
+      <c r="D97" s="108"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>81</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="107"/>
-      <c r="D98" s="108"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="123"/>
+      <c r="D98" s="124"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
       <c r="B99" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="107"/>
-      <c r="D99" s="108"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
       <c r="B100" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="107"/>
-      <c r="D100" s="108"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="123"/>
+      <c r="D100" s="124"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="109" t="s">
+      <c r="B101" s="119" t="s">
         <v>366</v>
       </c>
-      <c r="C101" s="110"/>
-      <c r="D101" s="111"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="120"/>
+      <c r="D101" s="121"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
       <c r="B102" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="117"/>
-      <c r="D102" s="113"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="107"/>
+      <c r="D102" s="108"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
       <c r="B103" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="117"/>
-      <c r="D103" s="113"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="107"/>
+      <c r="D103" s="108"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
       <c r="B104" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="117"/>
-      <c r="D104" s="113"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="107"/>
+      <c r="D104" s="108"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
       <c r="B105" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="117"/>
-      <c r="D105" s="113"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="107"/>
+      <c r="D105" s="108"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="109" t="s">
+      <c r="B106" s="119" t="s">
         <v>367</v>
       </c>
-      <c r="C106" s="110"/>
-      <c r="D106" s="111"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="120"/>
+      <c r="D106" s="121"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
       <c r="B107" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="107"/>
-      <c r="D107" s="108"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="123"/>
+      <c r="D107" s="124"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="109" t="s">
+      <c r="B108" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="C108" s="110"/>
-      <c r="D108" s="111"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="120"/>
+      <c r="D108" s="121"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
       <c r="B109" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="107"/>
-      <c r="D109" s="108"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="123"/>
+      <c r="D109" s="124"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
       <c r="B110" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="107"/>
-      <c r="D110" s="108"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="123"/>
+      <c r="D110" s="124"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
       <c r="B111" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="107"/>
-      <c r="D111" s="108"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="123"/>
+      <c r="D111" s="124"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
       <c r="B112" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="107"/>
-      <c r="D112" s="108"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="123"/>
+      <c r="D112" s="124"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
       <c r="B113" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="107"/>
-      <c r="D113" s="108"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="123"/>
+      <c r="D113" s="124"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
       <c r="B114" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="107"/>
-      <c r="D114" s="108"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="123"/>
+      <c r="D114" s="124"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
       <c r="B115" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="123"/>
+      <c r="D115" s="124"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
       <c r="B116" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="107"/>
-      <c r="D116" s="108"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="123"/>
+      <c r="D116" s="124"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
       <c r="B117" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="107"/>
-      <c r="D117" s="108"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="123"/>
+      <c r="D117" s="124"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
       <c r="B118" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="107"/>
-      <c r="D118" s="108"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="123"/>
+      <c r="D118" s="124"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
       <c r="B119" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="117"/>
-      <c r="D119" s="113"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="107"/>
+      <c r="D119" s="108"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
       <c r="B120" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="117"/>
-      <c r="D120" s="113"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="107"/>
+      <c r="D120" s="108"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
       <c r="B121" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="C121" s="117"/>
-      <c r="D121" s="113"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="107"/>
+      <c r="D121" s="108"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
       <c r="B122" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="C122" s="117"/>
-      <c r="D122" s="113"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="107"/>
+      <c r="D122" s="108"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
       <c r="B123" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="107"/>
-      <c r="D123" s="108"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="123"/>
+      <c r="D123" s="124"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
       <c r="B124" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="117"/>
-      <c r="D124" s="113"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="107"/>
+      <c r="D124" s="108"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
       <c r="B125" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="107"/>
-      <c r="D125" s="108"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="123"/>
+      <c r="D125" s="124"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>106</v>
       </c>
       <c r="B126" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="107"/>
-      <c r="D126" s="108"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="123"/>
+      <c r="D126" s="124"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
-      <c r="B127" s="109" t="s">
+      <c r="B127" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="C127" s="129"/>
-      <c r="D127" s="130"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="127"/>
+      <c r="D127" s="128"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
       <c r="B128" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="C128" s="107"/>
-      <c r="D128" s="108"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="123"/>
+      <c r="D128" s="124"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>108</v>
       </c>
       <c r="B129" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="C129" s="117"/>
-      <c r="D129" s="113"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="107"/>
+      <c r="D129" s="108"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
       <c r="B130" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="107"/>
-      <c r="D130" s="108"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="123"/>
+      <c r="D130" s="124"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
         <v>110</v>
       </c>
       <c r="B131" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="C131" s="107"/>
-      <c r="D131" s="108"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="123"/>
+      <c r="D131" s="124"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
         <v>111</v>
       </c>
       <c r="B132" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="C132" s="117"/>
-      <c r="D132" s="113"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="107"/>
+      <c r="D132" s="108"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>112</v>
       </c>
       <c r="B133" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="117"/>
-      <c r="D133" s="113"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="107"/>
+      <c r="D133" s="108"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
-      <c r="B134" s="109" t="s">
+      <c r="B134" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="110"/>
-      <c r="D134" s="111"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="120"/>
+      <c r="D134" s="121"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
       <c r="B135" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="107"/>
-      <c r="D135" s="108"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="123"/>
+      <c r="D135" s="124"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
       <c r="B136" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="107"/>
-      <c r="D136" s="108"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="123"/>
+      <c r="D136" s="124"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
       <c r="B137" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="117"/>
-      <c r="D137" s="113"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="107"/>
+      <c r="D137" s="108"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
       <c r="B138" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="107"/>
-      <c r="D138" s="108"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="123"/>
+      <c r="D138" s="124"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
       <c r="B139" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="107"/>
-      <c r="D139" s="108"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="123"/>
+      <c r="D139" s="124"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
       <c r="B140" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="117"/>
-      <c r="D140" s="113"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="107"/>
+      <c r="D140" s="108"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
       <c r="B141" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="107"/>
-      <c r="D141" s="108"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="123"/>
+      <c r="D141" s="124"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
       <c r="B142" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="107"/>
-      <c r="D142" s="108"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="123"/>
+      <c r="D142" s="124"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
       <c r="B143" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="117"/>
-      <c r="D143" s="113"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>122</v>
       </c>
       <c r="B144" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="117"/>
-      <c r="D144" s="113"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="107"/>
+      <c r="D144" s="108"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>123</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="123"/>
+      <c r="D145" s="124"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>124</v>
       </c>
       <c r="B146" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="112"/>
-      <c r="D146" s="113"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="140"/>
+      <c r="D146" s="108"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
-      <c r="B147" s="109" t="s">
+      <c r="B147" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="C147" s="110"/>
-      <c r="D147" s="111"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="120"/>
+      <c r="D147" s="121"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="127"/>
-      <c r="D148" s="128"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="131"/>
+      <c r="D148" s="132"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
-      <c r="B149" s="109" t="s">
+      <c r="B149" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="110"/>
-      <c r="D149" s="111"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="120"/>
+      <c r="D149" s="121"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>126</v>
       </c>
       <c r="B150" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="107"/>
-      <c r="D150" s="108"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="123"/>
+      <c r="D150" s="124"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>127</v>
       </c>
       <c r="B151" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="107"/>
-      <c r="D151" s="108"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="123"/>
+      <c r="D151" s="124"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>128</v>
       </c>
       <c r="B152" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="107"/>
-      <c r="D152" s="108"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="123"/>
+      <c r="D152" s="124"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
-      <c r="B153" s="109" t="s">
+      <c r="B153" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="110"/>
-      <c r="D153" s="111"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="120"/>
+      <c r="D153" s="121"/>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="67" t="s">
         <v>150</v>
@@ -5315,7 +5315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>129</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="C155" s="64"/>
       <c r="D155" s="65"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>130</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="C156" s="64"/>
       <c r="D156" s="65"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>131</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="C157" s="64"/>
       <c r="D157" s="65"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>132</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="C158" s="64"/>
       <c r="D158" s="65"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>133</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="C159" s="64"/>
       <c r="D159" s="65"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="C160" s="64"/>
       <c r="D160" s="65"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
@@ -5385,95 +5385,95 @@
       <c r="C161" s="64"/>
       <c r="D161" s="65"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
-      <c r="B162" s="109" t="s">
+      <c r="B162" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="110"/>
-      <c r="D162" s="111"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="120"/>
+      <c r="D162" s="121"/>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>136</v>
       </c>
       <c r="B163" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C163" s="123"/>
-      <c r="D163" s="124"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="129"/>
+      <c r="D163" s="130"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>137</v>
       </c>
       <c r="B164" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="123"/>
-      <c r="D164" s="124"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="129"/>
+      <c r="D164" s="130"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>138</v>
       </c>
       <c r="B165" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C165" s="123"/>
-      <c r="D165" s="124"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="129"/>
+      <c r="D165" s="130"/>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>139</v>
       </c>
       <c r="B166" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="C166" s="123"/>
-      <c r="D166" s="124"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="129"/>
+      <c r="D166" s="130"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>140</v>
       </c>
       <c r="B167" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="123"/>
-      <c r="D167" s="124"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="129"/>
+      <c r="D167" s="130"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>141</v>
       </c>
       <c r="B168" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="123"/>
-      <c r="D168" s="124"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="129"/>
+      <c r="D168" s="130"/>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>142</v>
       </c>
       <c r="B169" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="123"/>
-      <c r="D169" s="124"/>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="129"/>
+      <c r="D169" s="130"/>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
       <c r="B170" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="123"/>
-      <c r="D170" s="124"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="129"/>
+      <c r="D170" s="130"/>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="67" t="s">
         <v>150</v>
@@ -5485,7 +5485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>144</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="C172" s="64"/>
       <c r="D172" s="65"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>145</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="C173" s="64"/>
       <c r="D173" s="65"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>146</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="C174" s="64"/>
       <c r="D174" s="65"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>147</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="C175" s="64"/>
       <c r="D175" s="65"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>148</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="C176" s="64"/>
       <c r="D176" s="65"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="C177" s="64"/>
       <c r="D177" s="65"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
@@ -5555,436 +5555,595 @@
       <c r="C178" s="64"/>
       <c r="D178" s="65"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
-      <c r="B179" s="109" t="s">
+      <c r="B179" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="C179" s="110"/>
-      <c r="D179" s="111"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="120"/>
+      <c r="D179" s="121"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>151</v>
       </c>
       <c r="B180" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="107"/>
-      <c r="D180" s="108"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="123"/>
+      <c r="D180" s="124"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
       <c r="B181" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="107"/>
-      <c r="D181" s="108"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="123"/>
+      <c r="D181" s="124"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
       <c r="B182" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C182" s="117"/>
-      <c r="D182" s="113"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="107"/>
+      <c r="D182" s="108"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
-      <c r="B183" s="109" t="s">
+      <c r="B183" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="C183" s="110"/>
-      <c r="D183" s="111"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="120"/>
+      <c r="D183" s="121"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
       <c r="B184" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C184" s="107"/>
-      <c r="D184" s="108"/>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="123"/>
+      <c r="D184" s="124"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
       <c r="B185" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C185" s="107"/>
-      <c r="D185" s="108"/>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="123"/>
+      <c r="D185" s="124"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12"/>
-      <c r="B186" s="109" t="s">
+      <c r="B186" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="C186" s="110"/>
-      <c r="D186" s="111"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="120"/>
+      <c r="D186" s="121"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>156</v>
       </c>
       <c r="B187" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="C187" s="125"/>
-      <c r="D187" s="126"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="133"/>
+      <c r="D187" s="134"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>157</v>
       </c>
       <c r="B188" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="107"/>
-      <c r="D188" s="108"/>
-    </row>
-    <row r="189" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="123"/>
+      <c r="D188" s="124"/>
+    </row>
+    <row r="189" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>158</v>
       </c>
       <c r="B189" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="C189" s="107"/>
-      <c r="D189" s="108"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="123"/>
+      <c r="D189" s="124"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>159</v>
       </c>
       <c r="B190" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="C190" s="107"/>
-      <c r="D190" s="108"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="123"/>
+      <c r="D190" s="124"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>160</v>
       </c>
       <c r="B191" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C191" s="107"/>
-      <c r="D191" s="108"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C191" s="123"/>
+      <c r="D191" s="124"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>161</v>
       </c>
       <c r="B192" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="C192" s="117"/>
-      <c r="D192" s="113"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="107"/>
+      <c r="D192" s="108"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>162</v>
       </c>
       <c r="B193" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="C193" s="117"/>
-      <c r="D193" s="113"/>
-    </row>
-    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="107"/>
+      <c r="D193" s="108"/>
+    </row>
+    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>163</v>
       </c>
       <c r="B194" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C194" s="114"/>
-      <c r="D194" s="115"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="141"/>
+      <c r="D194" s="142"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>164</v>
       </c>
       <c r="B195" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C195" s="116"/>
-      <c r="D195" s="108"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="143"/>
+      <c r="D195" s="124"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>165</v>
       </c>
       <c r="B196" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C196" s="117"/>
-      <c r="D196" s="113"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="107"/>
+      <c r="D196" s="108"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>166</v>
       </c>
       <c r="B197" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C197" s="107"/>
-      <c r="D197" s="108"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="123"/>
+      <c r="D197" s="124"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>167</v>
       </c>
       <c r="B198" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C198" s="107"/>
-      <c r="D198" s="108"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="123"/>
+      <c r="D198" s="124"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>168</v>
       </c>
       <c r="B199" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C199" s="107"/>
-      <c r="D199" s="108"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="123"/>
+      <c r="D199" s="124"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C200" s="107"/>
-      <c r="D200" s="108"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="123"/>
+      <c r="D200" s="124"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>170</v>
       </c>
       <c r="B201" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C201" s="107"/>
-      <c r="D201" s="108"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="123"/>
+      <c r="D201" s="124"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
       <c r="B202" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C202" s="107"/>
-      <c r="D202" s="108"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="123"/>
+      <c r="D202" s="124"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>172</v>
       </c>
       <c r="B203" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C203" s="107"/>
-      <c r="D203" s="108"/>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="123"/>
+      <c r="D203" s="124"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
       <c r="B204" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C204" s="107"/>
-      <c r="D204" s="108"/>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="123"/>
+      <c r="D204" s="124"/>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="109" t="s">
+      <c r="B205" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="C205" s="110"/>
-      <c r="D205" s="111"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C205" s="120"/>
+      <c r="D205" s="121"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
       <c r="B206" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C206" s="107"/>
-      <c r="D206" s="108"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="123"/>
+      <c r="D206" s="124"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>175</v>
       </c>
       <c r="B207" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C207" s="107"/>
-      <c r="D207" s="108"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="123"/>
+      <c r="D207" s="124"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>176</v>
       </c>
       <c r="B208" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C208" s="107"/>
-      <c r="D208" s="108"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="123"/>
+      <c r="D208" s="124"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>177</v>
       </c>
       <c r="B209" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C209" s="120"/>
-      <c r="D209" s="121"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="137"/>
+      <c r="D209" s="138"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>178</v>
       </c>
       <c r="B210" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C210" s="120"/>
-      <c r="D210" s="121"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="137"/>
+      <c r="D210" s="138"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
-      <c r="B211" s="109" t="s">
+      <c r="B211" s="119" t="s">
         <v>187</v>
       </c>
-      <c r="C211" s="110"/>
-      <c r="D211" s="111"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="120"/>
+      <c r="D211" s="121"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>179</v>
       </c>
       <c r="B212" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C212" s="107"/>
-      <c r="D212" s="108"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="123"/>
+      <c r="D212" s="124"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>180</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C213" s="122"/>
-      <c r="D213" s="113"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="139"/>
+      <c r="D213" s="108"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>181</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C214" s="117"/>
-      <c r="D214" s="113"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="107"/>
+      <c r="D214" s="108"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>182</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C215" s="117"/>
-      <c r="D215" s="113"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="107"/>
+      <c r="D215" s="108"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>183</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C216" s="117"/>
-      <c r="D216" s="113"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="107"/>
+      <c r="D216" s="108"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>184</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C217" s="117"/>
-      <c r="D217" s="113"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="107"/>
+      <c r="D217" s="108"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
-      <c r="B218" s="109" t="s">
+      <c r="B218" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="C218" s="110"/>
-      <c r="D218" s="111"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="120"/>
+      <c r="D218" s="121"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>185</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="107"/>
-      <c r="D219" s="108"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="123"/>
+      <c r="D219" s="124"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>186</v>
       </c>
       <c r="B220" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C220" s="107"/>
-      <c r="D220" s="108"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="123"/>
+      <c r="D220" s="124"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>187</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C221" s="107"/>
-      <c r="D221" s="108"/>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="123"/>
+      <c r="D221" s="124"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="26">
         <v>188</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C222" s="118"/>
-      <c r="D222" s="119"/>
+      <c r="C222" s="135"/>
+      <c r="D222" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="C192:D192"/>
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C8:D8"/>
@@ -6009,165 +6168,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6187,41 +6187,41 @@
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="149"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="150"/>
       <c r="B2" s="151"/>
       <c r="C2" s="152"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="144" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="145"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="132"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="126"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -6302,14 +6302,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="132"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="126"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="C15" s="65"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="C16" s="65"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -6336,14 +6336,14 @@
       </c>
       <c r="C17" s="65"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="153" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="154"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="125" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="146"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C23" s="65"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>17</v>
       </c>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="50">
         <v>19</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="50">
         <v>21</v>
       </c>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>23</v>
       </c>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>25</v>
       </c>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50">
         <v>27</v>
       </c>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>29</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="50">
         <v>31</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="50">
         <v>33</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>35</v>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -6566,14 +6566,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="144" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="145"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -6636,14 +6636,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
       <c r="B52" s="144" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="145"/>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="50">
         <v>44</v>
       </c>
@@ -6652,14 +6652,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="132"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="126"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="58">
         <v>46</v>
       </c>
@@ -6677,17 +6677,17 @@
       </c>
       <c r="C56" s="70"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B44:C44"/>
@@ -6719,41 +6719,41 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="149"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="150"/>
       <c r="B2" s="151"/>
       <c r="C2" s="152"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="144" t="s">
         <v>243</v>
       </c>
       <c r="C3" s="145"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="132"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="126"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -6780,7 +6780,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -6834,14 +6834,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="132"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="126"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="C15" s="65"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="C16" s="65"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -6868,14 +6868,14 @@
       </c>
       <c r="C17" s="65"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="153" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="154"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -6902,14 +6902,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="125" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="146"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C23" s="65"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>17</v>
       </c>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>19</v>
       </c>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="50">
         <v>20</v>
       </c>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>21</v>
       </c>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>23</v>
       </c>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>25</v>
       </c>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="50">
         <v>26</v>
       </c>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>27</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>29</v>
       </c>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>31</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="50">
         <v>32</v>
       </c>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>33</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>35</v>
       </c>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7098,14 +7098,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="144" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="145"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -7168,14 +7168,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="132"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="126"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="58">
         <v>45</v>
       </c>
@@ -7193,17 +7193,17 @@
       </c>
       <c r="C54" s="70"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B44:C44"/>
@@ -7231,41 +7231,41 @@
       <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="40.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="149"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="150"/>
       <c r="B2" s="151"/>
       <c r="C2" s="152"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
       <c r="B3" s="144" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="145"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="132"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="126"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -7346,14 +7346,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
       <c r="B14" s="153" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="164"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="159"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="50">
         <v>10</v>
       </c>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>11</v>
       </c>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>12</v>
       </c>
@@ -7380,14 +7380,14 @@
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="132"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="126"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="C19" s="65"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="C20" s="65"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -7414,14 +7414,14 @@
       </c>
       <c r="C21" s="65"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="125" t="s">
         <v>210</v>
       </c>
       <c r="C22" s="146"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C23" s="65"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>19</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>21</v>
       </c>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>23</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>25</v>
       </c>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>27</v>
       </c>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>29</v>
       </c>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>31</v>
       </c>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>33</v>
       </c>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>35</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7610,14 +7610,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="144" t="s">
         <v>231</v>
       </c>
       <c r="C44" s="145"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -7680,14 +7680,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
       <c r="B52" s="144" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="145"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="50">
         <v>44</v>
       </c>
@@ -7696,14 +7696,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="125" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="132"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="126"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>46</v>
       </c>
@@ -7721,21 +7721,21 @@
       </c>
       <c r="C56" s="65"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="53"/>
       <c r="B57" s="144" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="145"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="53"/>
       <c r="B58" s="144" t="s">
         <v>245</v>
       </c>
       <c r="C58" s="145"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="53">
         <v>47</v>
       </c>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="53">
         <v>47</v>
       </c>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="53">
         <v>48</v>
       </c>
@@ -7762,14 +7762,14 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="53"/>
       <c r="B62" s="144" t="s">
         <v>249</v>
       </c>
       <c r="C62" s="145"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="54">
         <v>49</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="54">
         <v>50</v>
       </c>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="54">
         <v>51</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="54">
         <v>52</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="54">
         <v>53</v>
       </c>
@@ -7814,7 +7814,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="54">
         <v>54</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="54">
         <v>55</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="54">
         <v>56</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="54">
         <v>57</v>
       </c>
@@ -7850,14 +7850,14 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="144" t="s">
         <v>259</v>
       </c>
       <c r="C72" s="145"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="54">
         <v>58</v>
       </c>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="54">
         <v>59</v>
       </c>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="54">
         <v>60</v>
       </c>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="54">
         <v>61</v>
       </c>
@@ -7893,14 +7893,14 @@
       </c>
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
-      <c r="B77" s="155" t="s">
+      <c r="B77" s="160" t="s">
         <v>264</v>
       </c>
-      <c r="C77" s="156"/>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="161"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="54">
         <v>62</v>
       </c>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="54">
         <v>63</v>
       </c>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="C79" s="17"/>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="54">
         <v>64</v>
       </c>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="54">
         <v>65</v>
       </c>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C81" s="17"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="54">
         <v>66</v>
       </c>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="C82" s="17"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="54">
         <v>67</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="C83" s="17"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="54">
         <v>68</v>
       </c>
@@ -7963,14 +7963,14 @@
       </c>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
-      <c r="B85" s="155" t="s">
+      <c r="B85" s="160" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="156"/>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="161"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="54">
         <v>69</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="C86" s="19"/>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="54">
         <v>70</v>
       </c>
@@ -7988,14 +7988,14 @@
       </c>
       <c r="C87" s="19"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="54"/>
       <c r="B88" s="144" t="s">
         <v>275</v>
       </c>
       <c r="C88" s="145"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="54">
         <v>71</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="54">
         <v>72</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="54">
         <v>73</v>
       </c>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="54">
         <v>74</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="54">
         <v>75</v>
       </c>
@@ -8040,14 +8040,14 @@
       </c>
       <c r="C93" s="21"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
-      <c r="B94" s="155" t="s">
+      <c r="B94" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="C94" s="156"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="161"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="54">
         <v>76</v>
       </c>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="54">
         <v>77</v>
       </c>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="54">
         <v>78</v>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="54">
         <v>79</v>
       </c>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="54">
         <v>80</v>
       </c>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="54">
         <v>81</v>
       </c>
@@ -8101,14 +8101,14 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="53"/>
-      <c r="B101" s="155" t="s">
+      <c r="B101" s="160" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="156"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="161"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="54">
         <v>82</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="54">
         <v>83</v>
       </c>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="C103" s="17"/>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="54">
         <v>84</v>
       </c>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="54">
         <v>85</v>
       </c>
@@ -8144,14 +8144,14 @@
       </c>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="54"/>
-      <c r="B106" s="157" t="s">
+      <c r="B106" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="161"/>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="162"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="54">
         <v>86</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="C107" s="17"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="54">
         <v>87</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="54">
         <v>88</v>
       </c>
@@ -8178,14 +8178,14 @@
       </c>
       <c r="C109" s="17"/>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="53"/>
-      <c r="B110" s="155" t="s">
+      <c r="B110" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="C110" s="156"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="161"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="54">
         <v>89</v>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="54">
         <v>90</v>
       </c>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C112" s="17"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="54">
         <v>91</v>
       </c>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="54">
         <v>92</v>
       </c>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="54">
         <v>93</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="54">
         <v>94</v>
       </c>
@@ -8239,14 +8239,14 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="53"/>
-      <c r="B117" s="155" t="s">
+      <c r="B117" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="C117" s="156"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="161"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="54">
         <v>95</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="54">
         <v>96</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="54">
         <v>97</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="54">
         <v>98</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="54">
         <v>99</v>
       </c>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="54">
         <v>100</v>
       </c>
@@ -8300,14 +8300,14 @@
       </c>
       <c r="C123" s="17"/>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="53"/>
-      <c r="B124" s="155" t="s">
+      <c r="B124" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="C124" s="156"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="161"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="54">
         <v>101</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="54">
         <v>102</v>
       </c>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="54">
         <v>103</v>
       </c>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="54">
         <v>104</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="54">
         <v>105</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="54">
         <v>106</v>
       </c>
@@ -8361,14 +8361,14 @@
       </c>
       <c r="C130" s="17"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="53"/>
-      <c r="B131" s="155" t="s">
+      <c r="B131" s="160" t="s">
         <v>298</v>
       </c>
-      <c r="C131" s="156"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="161"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="54">
         <v>107</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="54">
         <v>108</v>
       </c>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="54">
         <v>109</v>
       </c>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="C134" s="17"/>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="54">
         <v>110</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="54">
         <v>111</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="C136" s="17"/>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="54">
         <v>112</v>
       </c>
@@ -8422,14 +8422,14 @@
       </c>
       <c r="C137" s="17"/>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="53"/>
-      <c r="B138" s="155" t="s">
+      <c r="B138" s="160" t="s">
         <v>299</v>
       </c>
-      <c r="C138" s="156"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="161"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="54">
         <v>113</v>
       </c>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="C139" s="17"/>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="54">
         <v>114</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="C140" s="17"/>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="54">
         <v>115</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="C141" s="17"/>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="54">
         <v>116</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="54">
         <v>117</v>
       </c>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="C143" s="17"/>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="54">
         <v>118</v>
       </c>
@@ -8483,14 +8483,14 @@
       </c>
       <c r="C144" s="17"/>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="54"/>
-      <c r="B145" s="157" t="s">
+      <c r="B145" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="158"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="156"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="54">
         <v>119</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C146" s="17"/>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="54">
         <v>120</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="54">
         <v>121</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C148" s="17"/>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="54">
         <v>122</v>
       </c>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="54">
         <v>123</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="54">
         <v>124</v>
       </c>
@@ -8544,14 +8544,14 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="54"/>
-      <c r="B152" s="162" t="s">
+      <c r="B152" s="157" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="163"/>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="158"/>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="54">
         <v>125</v>
       </c>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="C153" s="17"/>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="54">
         <v>126</v>
       </c>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="54">
         <v>127</v>
       </c>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="54">
         <v>128</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="54">
         <v>129</v>
       </c>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C157" s="17"/>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="54">
         <v>130</v>
       </c>
@@ -8605,14 +8605,14 @@
       </c>
       <c r="C158" s="17"/>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="53"/>
-      <c r="B159" s="155" t="s">
+      <c r="B159" s="160" t="s">
         <v>313</v>
       </c>
-      <c r="C159" s="156"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="161"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="54">
         <v>131</v>
       </c>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="C160" s="17"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="54">
         <v>132</v>
       </c>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="54">
         <v>133</v>
       </c>
@@ -8639,14 +8639,14 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="53"/>
-      <c r="B163" s="155" t="s">
+      <c r="B163" s="160" t="s">
         <v>317</v>
       </c>
-      <c r="C163" s="156"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="161"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="54">
         <v>134</v>
       </c>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="C164" s="19"/>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="54">
         <v>135</v>
       </c>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="C165" s="19"/>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="54">
         <v>136</v>
       </c>
@@ -8673,14 +8673,14 @@
       </c>
       <c r="C166" s="19"/>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="53"/>
-      <c r="B167" s="155" t="s">
+      <c r="B167" s="160" t="s">
         <v>321</v>
       </c>
-      <c r="C167" s="156"/>
-    </row>
-    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="161"/>
+    </row>
+    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="54">
         <v>137</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="C168" s="17"/>
     </row>
-    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="54">
         <v>138</v>
       </c>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C169" s="17"/>
     </row>
-    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="54">
         <v>139</v>
       </c>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="54">
         <v>140</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A172" s="54">
         <v>141</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="54">
         <v>142</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="C173" s="17"/>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="54">
         <v>143</v>
       </c>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="54">
         <v>144</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="54">
         <v>145</v>
       </c>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="54">
         <v>146</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="54">
         <v>147</v>
       </c>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="C178" s="17"/>
     </row>
-    <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="54">
         <v>148</v>
       </c>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C179" s="17"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="54">
         <v>149</v>
       </c>
@@ -8797,14 +8797,14 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="54"/>
-      <c r="B181" s="157" t="s">
+      <c r="B181" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="C181" s="158"/>
-    </row>
-    <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C181" s="156"/>
+    </row>
+    <row r="182" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="54">
         <v>150</v>
       </c>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="54">
         <v>151</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="54">
         <v>152</v>
       </c>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="54">
         <v>153</v>
       </c>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="54">
         <v>154</v>
       </c>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="54">
         <v>155</v>
       </c>
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="54">
         <v>156</v>
       </c>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="54">
         <v>157</v>
       </c>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="54">
         <v>158</v>
       </c>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="54">
         <v>159</v>
       </c>
@@ -8894,14 +8894,14 @@
       </c>
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="55"/>
-      <c r="B192" s="159" t="s">
+      <c r="B192" s="163" t="s">
         <v>346</v>
       </c>
-      <c r="C192" s="160"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="164"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="54">
         <v>160</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C193" s="17"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="54">
         <v>161</v>
       </c>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="54">
         <v>162</v>
       </c>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C195" s="61"/>
     </row>
-    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="59">
         <v>163</v>
       </c>
@@ -8939,6 +8939,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B152:C152"/>
     <mergeCell ref="B62:C62"/>
@@ -8955,21 +8970,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B138:C138"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B192:C192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
